--- a/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
+++ b/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hood.211/Dropbox/JMH_dropbox/stephanson2/projects/6_Research/IrenasPaper/bgc_meta/data/NewDataFromIrena20210130/New MAR Data/Raw Data Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hood.211/Dropbox/JMH_dropbox/stephanson2/projects/6_Research/IrenasPaper/bgc_meta/data/JMHnewMungedDat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10D9267-4581-2640-A412-F16884D7B3A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BEF8D0-E081-384A-92EC-3F38AD68A883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{BC43E26C-2443-B84E-92D9-98FD3EC23313}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{BC43E26C-2443-B84E-92D9-98FD3EC23313}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="96">
   <si>
     <t>Location</t>
   </si>
@@ -271,13 +272,64 @@
   </si>
   <si>
     <t>TP</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>Fix units for P</t>
+  </si>
+  <si>
+    <t>has TDP and Sus P</t>
+  </si>
+  <si>
+    <t>no TDP or TP</t>
+  </si>
+  <si>
+    <t>as ions</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>SRP (no TDP?)</t>
+  </si>
+  <si>
+    <t>not enough data</t>
+  </si>
+  <si>
+    <t>as N</t>
+  </si>
+  <si>
+    <t>TP (david says is TDP)_</t>
+  </si>
+  <si>
+    <t>corrected</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>CAN I GET TDP HERE?</t>
+  </si>
+  <si>
+    <t>IS SO4 AS ION OR ELEMENT</t>
+  </si>
+  <si>
+    <t>DROP</t>
+  </si>
+  <si>
+    <t>We're missing DOC, does it exist?</t>
+  </si>
+  <si>
+    <t>these are FWMC - need to exclude from code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,8 +366,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +397,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -353,7 +418,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -382,14 +447,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -707,11 +778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72083B0E-8DDB-0E46-A41E-82CD2F50A4BE}">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22:L24"/>
+    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,7 +889,7 @@
       <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>70</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -926,18 +997,18 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
     </row>
     <row r="7" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1098,9 +1169,14 @@
       <c r="L10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
+      <c r="S10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1132,6 +1208,9 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
+      <c r="S11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -1193,7 +1272,9 @@
       <c r="L13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
@@ -1319,7 +1400,9 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
@@ -1564,10 +1647,213 @@
       </c>
       <c r="O24" s="3"/>
     </row>
+    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="R6:AA6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00432CF3-689E-9141-83D3-8E8028CE9EB1}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
+++ b/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hood.211/Dropbox/JMH_dropbox/stephanson2/projects/6_Research/IrenasPaper/bgc_meta/data/JMHnewMungedDat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BEF8D0-E081-384A-92EC-3F38AD68A883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3C2CF2-B58F-134B-8044-BBBE5C729650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{BC43E26C-2443-B84E-92D9-98FD3EC23313}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="96">
   <si>
     <t>Location</t>
   </si>
@@ -782,7 +782,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1754,6 +1754,9 @@
       </c>
       <c r="H32" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="34" x14ac:dyDescent="0.2">

--- a/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
+++ b/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hood.211/Dropbox/JMH_dropbox/stephanson2/projects/6_Research/IrenasPaper/bgc_meta/data/JMHnewMungedDat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3C2CF2-B58F-134B-8044-BBBE5C729650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE6A38-BC80-5D47-8E21-D8B9E1240B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{BC43E26C-2443-B84E-92D9-98FD3EC23313}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{BC43E26C-2443-B84E-92D9-98FD3EC23313}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,17 +450,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -781,15 +781,17 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="C1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="23.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="14" width="23.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="34" x14ac:dyDescent="0.2">
@@ -997,18 +999,18 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
     </row>
     <row r="7" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1677,23 +1679,23 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14" t="s">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1723,7 +1725,7 @@
       <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G31" s="1" t="s">

--- a/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
+++ b/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hood.211/Dropbox/JMH_dropbox/stephanson2/projects/6_Research/IrenasPaper/bgc_meta/data/JMHnewMungedDat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkharms/Documents/Research/bgc_meta/data/JMHnewMungedDat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE6A38-BC80-5D47-8E21-D8B9E1240B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A3E769-BE45-B84A-A17E-18F2EFE3A8DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{BC43E26C-2443-B84E-92D9-98FD3EC23313}"/>
+    <workbookView xWindow="1360" yWindow="500" windowWidth="20720" windowHeight="21900" activeTab="1" xr2:uid="{BC43E26C-2443-B84E-92D9-98FD3EC23313}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="LOQ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="153">
   <si>
     <t>Location</t>
   </si>
@@ -323,13 +323,184 @@
   </si>
   <si>
     <t>these are FWMC - need to exclude from code</t>
+  </si>
+  <si>
+    <t>Solute</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>LOQ</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Date_start</t>
+  </si>
+  <si>
+    <t>Date_end</t>
+  </si>
+  <si>
+    <t>detection limit</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>TKN Lachat</t>
+  </si>
+  <si>
+    <t>TN analyzed on Autoanalyzer system (autoclave digestion, automated CD reduction method)</t>
+  </si>
+  <si>
+    <t>Auto Analyzer</t>
+  </si>
+  <si>
+    <t>TP analyses contracted out to EnviroClean Laboratories, London, Ont - simultaneous determination with TN</t>
+  </si>
+  <si>
+    <t>TP analyzed on Autoanalyser system (autoclave/persulfate digestion, automated molybdophosphoric blue method)</t>
+  </si>
+  <si>
+    <t>Auto Analyzer - SO4-Methyl Thymol Blue method</t>
+  </si>
+  <si>
+    <t>Dionex 2110i used for coloured samples, autoanalyzer for non coloured samples</t>
+  </si>
+  <si>
+    <t>Dionex DX500 (PeakNet software) for coloured samples, autoanalyzer for non coloured samples</t>
+  </si>
+  <si>
+    <t>Dionex DX500 (PeakNet software) for all samples</t>
+  </si>
+  <si>
+    <t>Dionex ICS1100 (Chromeleon 7 software) for all samples</t>
+  </si>
+  <si>
+    <t>TOC</t>
+  </si>
+  <si>
+    <t>Astro Analyzer(Total Carbon) and Inorganic Carbon</t>
+  </si>
+  <si>
+    <t>no more Astro, for carbon analysis, Auto Analysers used ; Sample purged - N2, Acid &amp; Potassium persulfate - UV rad-dialysis-OC inversely measured</t>
+  </si>
+  <si>
+    <t>run on autoanalyzers - same method as above - run on new AA3 with AACE 6.07 software</t>
+  </si>
+  <si>
+    <t>Auto Analyzer Automated Sodium Nitroprusside Method</t>
+  </si>
+  <si>
+    <t>same method as above; run on new AA3 with AACE 6.07 software</t>
+  </si>
+  <si>
+    <t>Auto Analyzer Automated Cadmium Reduction Method</t>
+  </si>
+  <si>
+    <t>New buffer used for NO3/NO2 (now using TN buffer)</t>
+  </si>
+  <si>
+    <t>Atomic Absorption</t>
+  </si>
+  <si>
+    <t>Varian Spectra Model 880 - Atomic Absorption Spectrophotometer used for cations-OS 2 software</t>
+  </si>
+  <si>
+    <t>2001 samples now done on ICP-OES for cations</t>
+  </si>
+  <si>
+    <t>Varian Vista Axial Simultaneous ICP (Version 1.3) - Cations and Trace Metals</t>
+  </si>
+  <si>
+    <t>Agilent 7700x ICP-MS - Masshunter software - Cations and Trace Metals (testing)</t>
+  </si>
+  <si>
+    <t>Agilent 7700x ICP-MS - Masshunter software - Cations and Trace Metals (testing for Hg)</t>
+  </si>
+  <si>
+    <t>ug/L</t>
+  </si>
+  <si>
+    <t>Minimum detection limit (MDL)</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>uM</t>
+  </si>
+  <si>
+    <t>Dorman DC-80</t>
+  </si>
+  <si>
+    <t>The Bear Brook Watershed in Maine: a paired watershed experiment. The First Decade (1987-1997), Norton &amp; Fernandez, eds.</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>PO4</t>
+  </si>
+  <si>
+    <t>TKN</t>
+  </si>
+  <si>
+    <t>http://andlter.forestry.oregonstate.edu/data/attributesdetail.aspx?dbcode=CF002&amp;entnum=1</t>
+  </si>
+  <si>
+    <t>mg S/L</t>
+  </si>
+  <si>
+    <t>mg N/L</t>
+  </si>
+  <si>
+    <t>mg P/L</t>
+  </si>
+  <si>
+    <t>LOQ (concentration where replicate precision is within 10% of the average)</t>
+  </si>
+  <si>
+    <t>https://portal.edirepository.org/nis/mapbrowse?scope=knb-lter-hbr&amp;identifier=208</t>
+  </si>
+  <si>
+    <t>TDN</t>
+  </si>
+  <si>
+    <t>High Temperature Catalytic oxidation w/ NDIR detection</t>
+  </si>
+  <si>
+    <t>High Temperature Catalytic oxidation w/ chemiluminescent N detection</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>colorimetric, molybdate-blue</t>
+  </si>
+  <si>
+    <t>colorimetric, salicylate</t>
+  </si>
+  <si>
+    <t>ICP atomic emmisions spectrometry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,6 +544,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -413,12 +613,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -462,10 +663,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -780,9 +993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72083B0E-8DDB-0E46-A41E-82CD2F50A4BE}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="C1:G1048576"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1813,52 +2026,1205 @@
     <mergeCell ref="R6:AA6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00432CF3-689E-9141-83D3-8E8028CE9EB1}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="19">
+        <v>31778</v>
+      </c>
+      <c r="C2" s="19">
+        <v>35795</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15">
+        <v>0.02</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0.25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0.06</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>1E-3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>0.02</v>
+      </c>
+      <c r="F22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>2E-3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24">
+        <v>1E-3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25">
+        <v>0.01</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="19">
+        <v>28856</v>
+      </c>
+      <c r="C29" s="17">
+        <v>34060</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29">
+        <v>0.02</v>
+      </c>
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="17">
+        <v>34090</v>
+      </c>
+      <c r="C30" s="17">
+        <v>34304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="17">
+        <v>34335</v>
+      </c>
+      <c r="C31" s="17">
+        <v>43344</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31">
+        <v>0.05</v>
+      </c>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="17">
+        <v>29587</v>
+      </c>
+      <c r="C32" s="17">
+        <v>29983</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32">
+        <v>1E-3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="17">
+        <v>391982</v>
+      </c>
+      <c r="C33" s="17">
+        <v>31079</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33">
+        <v>1E-3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="17">
+        <v>31352</v>
+      </c>
+      <c r="C34" s="17">
+        <v>43344</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34">
+        <v>1E-3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="17">
+        <v>29221</v>
+      </c>
+      <c r="C35" s="17">
+        <v>30317</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="17">
+        <v>30682</v>
+      </c>
+      <c r="C36" s="17">
+        <v>35065</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="17">
+        <v>35431</v>
+      </c>
+      <c r="C37" s="17">
+        <v>38353</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="17">
+        <v>38718</v>
+      </c>
+      <c r="C38" s="17">
+        <v>39448</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>0.2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19">
+        <v>39814</v>
+      </c>
+      <c r="C39" s="19">
+        <v>43370</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>0.2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="19">
+        <v>29952</v>
+      </c>
+      <c r="C40" s="19">
+        <v>31524</v>
+      </c>
+      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="19">
+        <v>31525</v>
+      </c>
+      <c r="C41" s="19">
+        <v>41334</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41">
+        <v>0.4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="19">
+        <v>41395</v>
+      </c>
+      <c r="C42" s="19">
+        <v>43370</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42">
+        <v>0.4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="19">
+        <v>29221</v>
+      </c>
+      <c r="C43" s="19">
+        <v>41334</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="19">
+        <v>41395</v>
+      </c>
+      <c r="C44" s="19">
+        <v>43370</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>0.01</v>
+      </c>
+      <c r="F44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="19">
+        <v>29221</v>
+      </c>
+      <c r="C45" s="19">
+        <v>34983</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="19">
+        <v>34984</v>
+      </c>
+      <c r="C46" s="19">
+        <v>41334</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="19">
+        <v>41395</v>
+      </c>
+      <c r="C47" s="19">
+        <v>43370</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>0.04</v>
+      </c>
+      <c r="F47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="19">
+        <v>29587</v>
+      </c>
+      <c r="C48" s="19">
+        <v>33970</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="19">
+        <v>34335</v>
+      </c>
+      <c r="C49" s="19">
+        <v>36526</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="18">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="19">
+        <v>36892</v>
+      </c>
+      <c r="C50" s="19">
+        <v>37653</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="F50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="19">
+        <v>36892</v>
+      </c>
+      <c r="C51" s="19">
+        <v>42216</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="F51" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="19">
+        <v>42217</v>
+      </c>
+      <c r="C52" s="19">
+        <v>42339</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="F52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="19">
+        <v>42370</v>
+      </c>
+      <c r="C53" s="19">
+        <v>43370</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="F53" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D54" s="18"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I18" r:id="rId1" xr:uid="{83F3EF41-A184-B142-9600-B18146578D1A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
+++ b/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkharms/Documents/Research/bgc_meta/data/JMHnewMungedDat/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A3E769-BE45-B84A-A17E-18F2EFE3A8DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="500" windowWidth="20720" windowHeight="21900" activeTab="1" xr2:uid="{BC43E26C-2443-B84E-92D9-98FD3EC23313}"/>
+    <workbookView xWindow="1360" yWindow="500" windowWidth="23040" windowHeight="26380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="LOQ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="160">
   <si>
     <t>Location</t>
   </si>
@@ -494,13 +491,34 @@
   </si>
   <si>
     <t>ICP atomic emmisions spectrometry</t>
+  </si>
+  <si>
+    <t>Patel et al. 2019 SSJA</t>
+  </si>
+  <si>
+    <t>all papers reference Ontario Ministry of the Environment 1983</t>
+  </si>
+  <si>
+    <t>varies- stored with data</t>
+  </si>
+  <si>
+    <t>https://www.fs.usda.gov/rds/archive/products/RDS-ext-MEF/_metadata_RDS-ext-MEF-2021-0001.xml</t>
+  </si>
+  <si>
+    <t>ICP-OES</t>
+  </si>
+  <si>
+    <t>total carbon minus inorganic carbon (TC-IC) before June 2010 and as non-purgeable organic carbon (NPOC) after that. ebestyen et al. (2020 ) show that the TC-IC and NPOC are comparable to within 10% relative error as a measure of TOC concentration</t>
+  </si>
+  <si>
+    <t>method detection limit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -545,24 +563,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -572,6 +574,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -613,13 +623,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -657,28 +676,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="13">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -737,7 +763,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -789,7 +815,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -983,22 +1009,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72083B0E-8DDB-0E46-A41E-82CD2F50A4BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
@@ -1007,7 +1033,7 @@
     <col min="8" max="14" width="23.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1078,7 @@
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="17">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1085,7 +1111,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="34">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +1140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="34">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1151,7 +1177,7 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="51">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1182,7 +1208,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="51">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1212,20 +1238,20 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-    </row>
-    <row r="7" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+    </row>
+    <row r="7" spans="1:27" ht="51">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1286,7 +1312,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="51">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1352,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="51">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1383,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="17">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1393,7 +1419,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="17">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1427,7 +1453,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="17">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1458,7 +1484,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="17">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1493,7 +1519,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="17">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1524,7 +1550,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="17">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1555,7 +1581,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="17">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1586,7 +1612,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="34">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1621,7 +1647,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="34">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1654,7 +1680,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="51">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1689,7 +1715,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="51">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1724,7 +1750,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="68">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1757,7 +1783,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="81" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1792,7 +1818,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="136">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -1827,7 +1853,7 @@
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="136">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -1862,7 +1888,7 @@
       </c>
       <c r="O24" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="17">
       <c r="B27" s="8" t="s">
         <v>61</v>
       </c>
@@ -1891,7 +1917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="17">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
         <v>10</v>
@@ -1912,7 +1938,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="17">
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1923,7 +1949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="17">
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1934,7 +1960,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="34">
       <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1954,7 +1980,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="34">
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1974,7 +2000,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" ht="34">
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1988,7 +2014,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" ht="17">
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1999,7 +2025,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" ht="17">
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2010,7 +2036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" ht="17">
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
@@ -2027,56 +2053,61 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00432CF3-689E-9141-83D3-8E8028CE9EB1}">
-  <dimension ref="A1:I54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="17">
+      <c r="A1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="17">
         <v>31778</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>35795</v>
       </c>
       <c r="D2" t="s">
@@ -2094,45 +2125,107 @@
       <c r="H2" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="B3" s="17">
+        <v>35796</v>
+      </c>
+      <c r="C3" s="17">
+        <v>42004</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="B4" s="17">
+        <v>35796</v>
+      </c>
+      <c r="C4" s="17">
+        <v>42004</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I5" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F8" t="s">
         <v>130</v>
@@ -2144,304 +2237,316 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>1.1200000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="E10">
-        <v>4.4000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>147</v>
+      <c r="H11" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="I11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>148</v>
+      <c r="H12" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="I12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="E13">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>149</v>
+      <c r="H13" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="I13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F14" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>149</v>
+      <c r="H14" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="I14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>150</v>
+      <c r="H15" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="I15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>9.7000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>151</v>
+      <c r="G16" t="s">
+        <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>152</v>
+      <c r="G17" t="s">
+        <v>137</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>0.06</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="E22">
-        <v>0.02</v>
+        <v>1E-3</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G22" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="E23">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F23" t="s">
         <v>105</v>
@@ -2449,123 +2554,183 @@
       <c r="G23" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F25" t="s">
         <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="H25" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17">
       <c r="A27" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17">
       <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="B28" s="17">
+        <v>28856</v>
+      </c>
+      <c r="C28" s="15">
+        <v>34060</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28">
+        <v>0.02</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="19">
-        <v>28856</v>
-      </c>
-      <c r="C29" s="17">
-        <v>34060</v>
+      <c r="B29" s="15">
+        <v>34090</v>
+      </c>
+      <c r="C29" s="15">
+        <v>34304</v>
       </c>
       <c r="D29" t="s">
         <v>101</v>
       </c>
-      <c r="E29">
-        <v>0.02</v>
-      </c>
-      <c r="F29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" t="s">
-        <v>104</v>
+      <c r="E29" t="s">
+        <v>84</v>
       </c>
       <c r="H29" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="17">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="17">
-        <v>34090</v>
-      </c>
-      <c r="C30" s="17">
-        <v>34304</v>
+      <c r="B30" s="15">
+        <v>34335</v>
+      </c>
+      <c r="C30" s="15">
+        <v>43344</v>
       </c>
       <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="E30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" t="s">
-        <v>84</v>
+      <c r="E30">
+        <v>0.05</v>
+      </c>
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="I30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="17">
-        <v>34335</v>
-      </c>
-      <c r="C31" s="17">
-        <v>43344</v>
+      <c r="B31" s="15">
+        <v>29587</v>
+      </c>
+      <c r="C31" s="15">
+        <v>29983</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E31">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="F31" t="s">
         <v>105</v>
@@ -2573,22 +2738,22 @@
       <c r="G31" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="18" t="s">
-        <v>107</v>
+      <c r="H31" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="I31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="17">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="17">
-        <v>29587</v>
-      </c>
-      <c r="C32" s="17">
-        <v>29983</v>
+      <c r="B32" s="15">
+        <v>391982</v>
+      </c>
+      <c r="C32" s="15">
+        <v>31079</v>
       </c>
       <c r="D32" t="s">
         <v>78</v>
@@ -2602,22 +2767,22 @@
       <c r="G32" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="18" t="s">
-        <v>108</v>
+      <c r="H32" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="I32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="17">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="17">
-        <v>391982</v>
-      </c>
-      <c r="C33" s="17">
-        <v>31079</v>
+      <c r="B33" s="15">
+        <v>31352</v>
+      </c>
+      <c r="C33" s="15">
+        <v>43344</v>
       </c>
       <c r="D33" t="s">
         <v>78</v>
@@ -2631,28 +2796,28 @@
       <c r="G33" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="18" t="s">
-        <v>109</v>
+      <c r="H33" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="I33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="17">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17">
-        <v>31352</v>
-      </c>
-      <c r="C34" s="17">
-        <v>43344</v>
+      <c r="B34" s="15">
+        <v>29221</v>
+      </c>
+      <c r="C34" s="15">
+        <v>30317</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>1E-3</v>
+        <v>0.5</v>
       </c>
       <c r="F34" t="s">
         <v>105</v>
@@ -2660,22 +2825,22 @@
       <c r="G34" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="18" t="s">
-        <v>110</v>
+      <c r="H34" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="I34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="17">
-        <v>29221</v>
-      </c>
-      <c r="C35" s="17">
-        <v>30317</v>
+      <c r="B35" s="15">
+        <v>30682</v>
+      </c>
+      <c r="C35" s="15">
+        <v>35065</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -2689,22 +2854,22 @@
       <c r="G35" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>111</v>
+      <c r="H35" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="I35" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="17">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="17">
-        <v>30682</v>
-      </c>
-      <c r="C36" s="17">
-        <v>35065</v>
+      <c r="B36" s="15">
+        <v>35431</v>
+      </c>
+      <c r="C36" s="15">
+        <v>38353</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -2718,28 +2883,28 @@
       <c r="G36" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>112</v>
+      <c r="H36" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="I36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="17">
-        <v>35431</v>
-      </c>
-      <c r="C37" s="17">
-        <v>38353</v>
+      <c r="B37" s="15">
+        <v>38718</v>
+      </c>
+      <c r="C37" s="15">
+        <v>39448</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F37" t="s">
         <v>105</v>
@@ -2747,22 +2912,22 @@
       <c r="G37" t="s">
         <v>104</v>
       </c>
-      <c r="H37" s="18" t="s">
-        <v>113</v>
+      <c r="H37" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="I37" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="17">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="17">
-        <v>38718</v>
+        <v>39814</v>
       </c>
       <c r="C38" s="17">
-        <v>39448</v>
+        <v>43370</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -2776,28 +2941,28 @@
       <c r="G38" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="18" t="s">
-        <v>114</v>
+      <c r="H38" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="I38" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="17">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="19">
-        <v>39814</v>
-      </c>
-      <c r="C39" s="19">
-        <v>43370</v>
+      <c r="B39" s="17">
+        <v>29952</v>
+      </c>
+      <c r="C39" s="17">
+        <v>31524</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>0.2</v>
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>84</v>
       </c>
       <c r="F39" t="s">
         <v>105</v>
@@ -2805,28 +2970,28 @@
       <c r="G39" t="s">
         <v>104</v>
       </c>
-      <c r="H39" s="18" t="s">
-        <v>115</v>
+      <c r="H39" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="I39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="17">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="19">
-        <v>29952</v>
-      </c>
-      <c r="C40" s="19">
-        <v>31524</v>
+      <c r="B40" s="17">
+        <v>31525</v>
+      </c>
+      <c r="C40" s="17">
+        <v>41334</v>
       </c>
       <c r="D40" t="s">
         <v>116</v>
       </c>
-      <c r="E40" t="s">
-        <v>84</v>
+      <c r="E40">
+        <v>0.4</v>
       </c>
       <c r="F40" t="s">
         <v>105</v>
@@ -2834,22 +2999,22 @@
       <c r="G40" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="18" t="s">
-        <v>117</v>
+      <c r="H40" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="I40" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="17">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="19">
-        <v>31525</v>
-      </c>
-      <c r="C41" s="19">
-        <v>41334</v>
+      <c r="B41" s="17">
+        <v>41395</v>
+      </c>
+      <c r="C41" s="17">
+        <v>43370</v>
       </c>
       <c r="D41" t="s">
         <v>116</v>
@@ -2863,28 +3028,28 @@
       <c r="G41" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="18" t="s">
-        <v>118</v>
+      <c r="H41" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="I41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="17">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="19">
-        <v>41395</v>
-      </c>
-      <c r="C42" s="19">
-        <v>43370</v>
+      <c r="B42" s="17">
+        <v>29221</v>
+      </c>
+      <c r="C42" s="17">
+        <v>41334</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42">
-        <v>0.4</v>
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
       </c>
       <c r="F42" t="s">
         <v>105</v>
@@ -2892,28 +3057,28 @@
       <c r="G42" t="s">
         <v>104</v>
       </c>
-      <c r="H42" s="18" t="s">
-        <v>119</v>
+      <c r="H42" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="I42" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="17">
       <c r="A43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="19">
-        <v>29221</v>
-      </c>
-      <c r="C43" s="19">
-        <v>41334</v>
+      <c r="B43" s="17">
+        <v>41395</v>
+      </c>
+      <c r="C43" s="17">
+        <v>43370</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
-      <c r="E43" t="s">
-        <v>84</v>
+      <c r="E43">
+        <v>0.01</v>
       </c>
       <c r="F43" t="s">
         <v>105</v>
@@ -2921,28 +3086,28 @@
       <c r="G43" t="s">
         <v>104</v>
       </c>
-      <c r="H43" s="18" t="s">
-        <v>120</v>
+      <c r="H43" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="I43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="17">
       <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="19">
-        <v>41395</v>
-      </c>
-      <c r="C44" s="19">
-        <v>43370</v>
+      <c r="B44" s="17">
+        <v>29221</v>
+      </c>
+      <c r="C44" s="17">
+        <v>34983</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>0.01</v>
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
       </c>
       <c r="F44" t="s">
         <v>105</v>
@@ -2950,22 +3115,22 @@
       <c r="G44" t="s">
         <v>104</v>
       </c>
-      <c r="H44" s="18" t="s">
-        <v>121</v>
+      <c r="H44" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="I44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="17">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="19">
-        <v>29221</v>
-      </c>
-      <c r="C45" s="19">
-        <v>34983</v>
+      <c r="B45" s="17">
+        <v>34984</v>
+      </c>
+      <c r="C45" s="17">
+        <v>41334</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -2979,28 +3144,28 @@
       <c r="G45" t="s">
         <v>104</v>
       </c>
-      <c r="H45" s="18" t="s">
-        <v>122</v>
+      <c r="H45" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="I45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="17">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="19">
-        <v>34984</v>
-      </c>
-      <c r="C46" s="19">
-        <v>41334</v>
+      <c r="B46" s="17">
+        <v>41395</v>
+      </c>
+      <c r="C46" s="17">
+        <v>43370</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
-        <v>84</v>
+      <c r="E46">
+        <v>0.04</v>
       </c>
       <c r="F46" t="s">
         <v>105</v>
@@ -3008,28 +3173,28 @@
       <c r="G46" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="18" t="s">
-        <v>123</v>
+      <c r="H46" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="I46" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="17">
       <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="19">
-        <v>41395</v>
-      </c>
-      <c r="C47" s="19">
-        <v>43370</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>0.04</v>
+      <c r="B47" s="17">
+        <v>29587</v>
+      </c>
+      <c r="C47" s="17">
+        <v>33970</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="F47" t="s">
         <v>105</v>
@@ -3037,28 +3202,28 @@
       <c r="G47" t="s">
         <v>104</v>
       </c>
-      <c r="H47" s="18" t="s">
-        <v>121</v>
+      <c r="H47" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="I47" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="17">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="19">
-        <v>29587</v>
-      </c>
-      <c r="C48" s="19">
-        <v>33970</v>
-      </c>
-      <c r="D48" s="18" t="s">
+      <c r="B48" s="17">
+        <v>34335</v>
+      </c>
+      <c r="C48" s="17">
+        <v>36526</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>84</v>
+      <c r="E48" s="16">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F48" t="s">
         <v>105</v>
@@ -3066,28 +3231,28 @@
       <c r="G48" t="s">
         <v>104</v>
       </c>
-      <c r="H48" s="18" t="s">
-        <v>124</v>
+      <c r="H48" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="I48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="17">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="19">
-        <v>34335</v>
-      </c>
-      <c r="C49" s="19">
-        <v>36526</v>
-      </c>
-      <c r="D49" s="18" t="s">
+      <c r="B49" s="17">
+        <v>36892</v>
+      </c>
+      <c r="C49" s="17">
+        <v>37653</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="18">
-        <v>7.4999999999999997E-2</v>
+      <c r="E49" s="16">
+        <v>0.02</v>
       </c>
       <c r="F49" t="s">
         <v>105</v>
@@ -3095,27 +3260,27 @@
       <c r="G49" t="s">
         <v>104</v>
       </c>
-      <c r="H49" s="18" t="s">
-        <v>125</v>
+      <c r="H49" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="I49" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="17">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="17">
         <v>36892</v>
       </c>
-      <c r="C50" s="19">
-        <v>37653</v>
-      </c>
-      <c r="D50" s="18" t="s">
+      <c r="C50" s="17">
+        <v>42216</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="16">
         <v>0.02</v>
       </c>
       <c r="F50" t="s">
@@ -3124,28 +3289,28 @@
       <c r="G50" t="s">
         <v>104</v>
       </c>
-      <c r="H50" s="18" t="s">
-        <v>126</v>
+      <c r="H50" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="I50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="17">
       <c r="A51" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="19">
-        <v>36892</v>
-      </c>
-      <c r="C51" s="19">
-        <v>42216</v>
-      </c>
-      <c r="D51" s="18" t="s">
+      <c r="B51" s="17">
+        <v>42217</v>
+      </c>
+      <c r="C51" s="17">
+        <v>42339</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="18">
-        <v>0.02</v>
+      <c r="E51" s="16">
+        <v>0.01</v>
       </c>
       <c r="F51" t="s">
         <v>105</v>
@@ -3153,27 +3318,27 @@
       <c r="G51" t="s">
         <v>104</v>
       </c>
-      <c r="H51" s="18" t="s">
-        <v>127</v>
+      <c r="H51" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="I51" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="17">
       <c r="A52" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="19">
-        <v>42217</v>
-      </c>
-      <c r="C52" s="19">
-        <v>42339</v>
-      </c>
-      <c r="D52" s="18" t="s">
+      <c r="B52" s="17">
+        <v>42370</v>
+      </c>
+      <c r="C52" s="17">
+        <v>43370</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="16">
         <v>0.01</v>
       </c>
       <c r="F52" t="s">
@@ -3182,49 +3347,23 @@
       <c r="G52" t="s">
         <v>104</v>
       </c>
-      <c r="H52" s="18" t="s">
-        <v>128</v>
+      <c r="H52" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="I52" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="19">
-        <v>42370</v>
-      </c>
-      <c r="C53" s="19">
-        <v>43370</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="F53" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" t="s">
-        <v>104</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="I53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D54" s="18"/>
+    <row r="53" spans="1:9">
+      <c r="D53" s="16"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I18" r:id="rId1" xr:uid="{83F3EF41-A184-B142-9600-B18146578D1A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
+++ b/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="500" windowWidth="23040" windowHeight="26380" activeTab="1"/>
+    <workbookView xWindow="25020" yWindow="0" windowWidth="25360" windowHeight="28220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="167">
   <si>
     <t>Location</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Solute</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>LOQ</t>
   </si>
   <si>
@@ -337,9 +334,6 @@
     <t>Method</t>
   </si>
   <si>
-    <t>TN</t>
-  </si>
-  <si>
     <t>Date_start</t>
   </si>
   <si>
@@ -382,9 +376,6 @@
     <t>Dionex ICS1100 (Chromeleon 7 software) for all samples</t>
   </si>
   <si>
-    <t>TOC</t>
-  </si>
-  <si>
     <t>Astro Analyzer(Total Carbon) and Inorganic Carbon</t>
   </si>
   <si>
@@ -451,9 +442,6 @@
     <t>PO4</t>
   </si>
   <si>
-    <t>TKN</t>
-  </si>
-  <si>
     <t>http://andlter.forestry.oregonstate.edu/data/attributesdetail.aspx?dbcode=CF002&amp;entnum=1</t>
   </si>
   <si>
@@ -512,13 +500,46 @@
   </si>
   <si>
     <t>method detection limit</t>
+  </si>
+  <si>
+    <t>LOQ_reported</t>
+  </si>
+  <si>
+    <t>units_LOQ</t>
+  </si>
+  <si>
+    <t>Units_reported</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>LOQ sometimes defined as 10x SD, assume precision reported here = SD</t>
+  </si>
+  <si>
+    <t>mg SO4/L</t>
+  </si>
+  <si>
+    <t>as TKN</t>
+  </si>
+  <si>
+    <t>Notes_a</t>
+  </si>
+  <si>
+    <t>as TN</t>
+  </si>
+  <si>
+    <t>as TOC</t>
+  </si>
+  <si>
+    <t>as TP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -583,6 +604,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -623,7 +652,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -636,6 +665,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
@@ -692,7 +741,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="33">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -704,7 +753,27 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1033,7 +1102,7 @@
     <col min="8" max="14" width="23.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="34">
+    <row r="1" spans="1:27" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1147,7 @@
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="17">
+    <row r="2" spans="1:27">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1111,7 +1180,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="34">
+    <row r="3" spans="1:27" ht="30">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1140,7 +1209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="34">
+    <row r="4" spans="1:27" ht="30">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1177,7 +1246,7 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="51">
+    <row r="5" spans="1:27" ht="45">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1277,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="51">
+    <row r="6" spans="1:27" ht="45">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1251,7 +1320,7 @@
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
     </row>
-    <row r="7" spans="1:27" ht="51">
+    <row r="7" spans="1:27" ht="45">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1312,7 +1381,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="51">
+    <row r="8" spans="1:27" ht="45">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1352,7 +1421,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="51">
+    <row r="9" spans="1:27" ht="45">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1383,7 +1452,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="17">
+    <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1419,7 +1488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="17">
+    <row r="11" spans="1:27">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1453,7 +1522,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="17">
+    <row r="12" spans="1:27">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1484,7 +1553,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="17">
+    <row r="13" spans="1:27">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1519,7 +1588,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="17">
+    <row r="14" spans="1:27">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1550,7 +1619,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:27" ht="17">
+    <row r="15" spans="1:27">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1581,7 +1650,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="17">
+    <row r="16" spans="1:27">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1612,7 +1681,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="34">
+    <row r="17" spans="1:15" ht="30">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1647,7 +1716,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="34">
+    <row r="18" spans="1:15" ht="30">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1680,7 +1749,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="51">
+    <row r="19" spans="1:15" ht="45">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1715,7 +1784,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="51">
+    <row r="20" spans="1:15" ht="45">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1750,7 +1819,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="68">
+    <row r="21" spans="1:15" ht="60">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1818,7 +1887,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="136">
+    <row r="23" spans="1:15" ht="120">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -1853,7 +1922,7 @@
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="136">
+    <row r="24" spans="1:15" ht="120">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -1888,7 +1957,7 @@
       </c>
       <c r="O24" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="17">
+    <row r="27" spans="1:15">
       <c r="B27" s="8" t="s">
         <v>61</v>
       </c>
@@ -1917,7 +1986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="17">
+    <row r="28" spans="1:15">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
         <v>10</v>
@@ -1938,7 +2007,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="17">
+    <row r="29" spans="1:15">
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1949,7 +2018,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="17">
+    <row r="30" spans="1:15">
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1960,7 +2029,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="34">
+    <row r="31" spans="1:15" ht="30">
       <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1980,7 +2049,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="34">
+    <row r="32" spans="1:15" ht="30">
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2000,7 +2069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="34">
+    <row r="33" spans="2:11" ht="30">
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
@@ -2014,7 +2083,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="17">
+    <row r="34" spans="2:11">
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2025,7 +2094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="17">
+    <row r="35" spans="2:11">
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2036,7 +2105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="17">
+    <row r="36" spans="2:11">
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
@@ -2063,755 +2132,1057 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" ht="17">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="30">
       <c r="A1" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>96</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="17">
+        <v>42217</v>
+      </c>
+      <c r="C2" s="17">
+        <v>42339</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="17">
+        <v>42370</v>
+      </c>
+      <c r="C3" s="17">
+        <v>43370</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="17">
+        <v>36892</v>
+      </c>
+      <c r="C4" s="17">
+        <v>37653</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="17">
+        <v>36892</v>
+      </c>
+      <c r="C5" s="17">
+        <v>42216</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0.05</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6">
+        <f>E6</f>
+        <v>0.05</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="17">
+        <v>34335</v>
+      </c>
+      <c r="C7" s="17">
+        <v>36526</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0.25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8">
+        <f>E8</f>
+        <v>0.25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0.06</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9">
+        <f>E9*10</f>
+        <v>0.6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="17">
+        <v>29587</v>
+      </c>
+      <c r="C10" s="17">
+        <v>33970</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="17">
+        <v>31778</v>
+      </c>
+      <c r="C11" s="17">
+        <v>35795</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11">
+        <f>E11*12*0.001</f>
+        <v>0.3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="17">
-        <v>31778</v>
-      </c>
-      <c r="C2" s="17">
-        <v>35795</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="K11" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12">
+        <f>E12*10</f>
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" t="s">
         <v>134</v>
       </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="K12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="17">
-        <v>35796</v>
-      </c>
-      <c r="C3" s="17">
-        <v>42004</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="17">
-        <v>35796</v>
-      </c>
-      <c r="C4" s="17">
-        <v>42004</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>1.5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10">
-        <v>0.3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>0.3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="I12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17">
+      <c r="L12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>0.02</v>
+        <v>1.5</v>
       </c>
       <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13">
+        <f>E13</f>
+        <v>1.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="I13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17">
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="E14">
-        <v>9.7000000000000003E-2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>151</v>
+        <v>127</v>
+      </c>
+      <c r="G14">
+        <f>E14*0.001</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B15" s="17">
+        <v>41395</v>
+      </c>
+      <c r="C15" s="17">
+        <v>43370</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>152</v>
+        <v>103</v>
+      </c>
+      <c r="G15">
+        <v>0.01</v>
+      </c>
+      <c r="H15" t="s">
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>0.06</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="G16">
+        <f>E16*10</f>
+        <v>0.03</v>
+      </c>
+      <c r="H16" t="s">
+        <v>138</v>
       </c>
       <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17">
+        <f>E17</f>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>0.05</v>
-      </c>
-      <c r="F17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17">
+      <c r="J17" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B18" s="17">
+        <v>29221</v>
+      </c>
+      <c r="C18" s="17">
+        <v>41334</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
-      <c r="E18">
-        <v>3.0000000000000001E-3</v>
-      </c>
       <c r="F18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" t="s">
-        <v>137</v>
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17">
+        <v>102</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="17">
+        <v>35796</v>
+      </c>
+      <c r="C19" s="17">
+        <v>42004</v>
       </c>
       <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E19">
-        <v>1E-3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
       <c r="E20">
-        <v>0.02</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" t="s">
-        <v>137</v>
+        <v>127</v>
+      </c>
+      <c r="G20">
+        <f>E20*0.001</f>
+        <v>1.1200000000000001E-3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17">
+        <v>128</v>
+      </c>
+      <c r="K20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="G21">
+        <f>E21*10</f>
+        <v>0.01</v>
+      </c>
+      <c r="H21" t="s">
+        <v>138</v>
       </c>
       <c r="I21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="17">
+        <v>41395</v>
+      </c>
+      <c r="C22" s="17">
+        <v>43370</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>0.04</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22">
+        <v>0.04</v>
+      </c>
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23">
+        <f>E23*(14/(14+16*3))</f>
+        <v>6.774193548387096E-2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="17">
-      <c r="A22" s="2" t="s">
+      <c r="J23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="17">
+        <v>29221</v>
+      </c>
+      <c r="C24" s="17">
+        <v>34983</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="17">
+        <v>34984</v>
+      </c>
+      <c r="C25" s="17">
+        <v>41334</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="17">
+        <v>35796</v>
+      </c>
+      <c r="C26" s="17">
+        <v>42004</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22">
+      <c r="D27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27">
         <v>1E-3</v>
       </c>
-      <c r="F22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F27" t="s">
         <v>139</v>
       </c>
-      <c r="E23">
+      <c r="G27">
+        <f>E27*10</f>
         <v>0.01</v>
       </c>
-      <c r="F23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>0.02</v>
-      </c>
-      <c r="F24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H24" t="s">
-        <v>149</v>
-      </c>
-      <c r="I24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>0.05</v>
-      </c>
-      <c r="F25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26">
-        <v>0.5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="17">
-      <c r="A27" s="2" t="s">
-        <v>36</v>
+      <c r="H27" t="s">
+        <v>139</v>
       </c>
       <c r="I27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17">
+        <v>134</v>
+      </c>
+      <c r="K27" t="s">
+        <v>136</v>
+      </c>
+      <c r="L27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="17">
-        <v>28856</v>
-      </c>
-      <c r="C28" s="15">
-        <v>34060</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="E28">
         <v>0.02</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" t="s">
-        <v>104</v>
+        <v>139</v>
+      </c>
+      <c r="G28">
+        <f>E28</f>
+        <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="17">
+        <v>139</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="15">
-        <v>34090</v>
-      </c>
-      <c r="C29" s="15">
-        <v>34304</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" t="s">
-        <v>84</v>
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>0.02</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29">
+        <f>E29</f>
+        <v>0.02</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="I29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="17">
+        <v>155</v>
+      </c>
+      <c r="J29" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="15">
-        <v>34335</v>
+        <v>38718</v>
       </c>
       <c r="C30" s="15">
-        <v>43344</v>
+        <v>39448</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="G30">
+        <v>0.2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>103</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="17">
+        <v>102</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="15">
-        <v>29587</v>
-      </c>
-      <c r="C31" s="15">
-        <v>29983</v>
+      <c r="B31" s="17">
+        <v>39814</v>
+      </c>
+      <c r="C31" s="17">
+        <v>43370</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>1E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="G31">
+        <v>0.2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>103</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="17">
+        <v>102</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="15">
-        <v>391982</v>
+        <v>29221</v>
       </c>
       <c r="C32" s="15">
-        <v>31079</v>
+        <v>30317</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>1E-3</v>
+        <v>0.5</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32">
+        <v>0.5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="I32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="17">
+      <c r="K32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="15">
-        <v>31352</v>
+        <v>30682</v>
       </c>
       <c r="C33" s="15">
-        <v>43344</v>
+        <v>35065</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>1E-3</v>
+        <v>0.5</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33">
+        <v>0.5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="17">
+      <c r="K33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="15">
-        <v>29221</v>
+        <v>35431</v>
       </c>
       <c r="C34" s="15">
-        <v>30317</v>
+        <v>38353</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -2820,544 +3191,582 @@
         <v>0.5</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34">
+        <v>0.5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J34" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17">
+      <c r="K34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="15">
-        <v>30682</v>
-      </c>
-      <c r="C35" s="15">
-        <v>35065</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>112</v>
+        <v>137</v>
+      </c>
+      <c r="G35">
+        <f>10*E35*((32.065+4*16))/32.065</f>
+        <v>0.59918914704506476</v>
+      </c>
+      <c r="H35" t="s">
+        <v>161</v>
       </c>
       <c r="I35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17">
+        <v>134</v>
+      </c>
+      <c r="K35" t="s">
+        <v>136</v>
+      </c>
+      <c r="L35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="15">
-        <v>35431</v>
-      </c>
-      <c r="C36" s="15">
-        <v>38353</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36">
+        <f>E36</f>
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37">
+        <v>0.3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37">
+        <f>E37</f>
+        <v>0.3</v>
+      </c>
+      <c r="H37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38">
         <v>0.5</v>
       </c>
-      <c r="F36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17">
-      <c r="A37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="15">
-        <v>38718</v>
-      </c>
-      <c r="C37" s="15">
-        <v>39448</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>0.2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" t="s">
-        <v>104</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="17">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="17">
-        <v>39814</v>
-      </c>
-      <c r="C38" s="17">
-        <v>43370</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38">
-        <v>0.2</v>
-      </c>
       <c r="F38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>115</v>
+        <v>127</v>
+      </c>
+      <c r="G38">
+        <f>E38*0.001</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>103</v>
       </c>
       <c r="I38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="17">
+        <v>128</v>
+      </c>
+      <c r="K38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="17">
-        <v>29952</v>
-      </c>
-      <c r="C39" s="17">
-        <v>31524</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" t="s">
-        <v>84</v>
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>2E-3</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="G39">
+        <f>E39*10</f>
+        <v>0.02</v>
+      </c>
+      <c r="H39" t="s">
+        <v>103</v>
       </c>
       <c r="I39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17">
+        <v>134</v>
+      </c>
+      <c r="K39" t="s">
+        <v>136</v>
+      </c>
+      <c r="L39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="17">
-        <v>31525</v>
-      </c>
-      <c r="C40" s="17">
-        <v>41334</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="E40">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>118</v>
+        <v>103</v>
+      </c>
+      <c r="G40">
+        <f>E40*10</f>
+        <v>0.1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>103</v>
       </c>
       <c r="I40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17">
+        <v>134</v>
+      </c>
+      <c r="K40" t="s">
+        <v>136</v>
+      </c>
+      <c r="L40" t="s">
+        <v>160</v>
+      </c>
+      <c r="M40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="17">
-        <v>41395</v>
-      </c>
-      <c r="C41" s="17">
-        <v>43370</v>
+        <v>28856</v>
+      </c>
+      <c r="C41" s="15">
+        <v>34060</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="E41">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41">
+        <v>0.02</v>
+      </c>
+      <c r="H41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17">
+      <c r="K41" t="s">
+        <v>130</v>
+      </c>
+      <c r="M41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="17">
-        <v>29221</v>
-      </c>
-      <c r="C42" s="17">
-        <v>41334</v>
+      <c r="B42" s="15">
+        <v>34335</v>
+      </c>
+      <c r="C42" s="15">
+        <v>43344</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>84</v>
+        <v>142</v>
+      </c>
+      <c r="E42">
+        <v>0.05</v>
       </c>
       <c r="F42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42">
+        <v>0.05</v>
+      </c>
+      <c r="H42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G42" t="s">
-        <v>104</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17">
+      <c r="K42" t="s">
+        <v>130</v>
+      </c>
+      <c r="M42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="17">
-        <v>41395</v>
-      </c>
-      <c r="C43" s="17">
-        <v>43370</v>
+      <c r="B43" s="15">
+        <v>34090</v>
+      </c>
+      <c r="C43" s="15">
+        <v>34304</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>0.01</v>
-      </c>
-      <c r="F43" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17">
+        <v>142</v>
+      </c>
+      <c r="J43" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" t="s">
+        <v>130</v>
+      </c>
+      <c r="M43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="17">
-        <v>29221</v>
+        <v>31525</v>
       </c>
       <c r="C44" s="17">
-        <v>34983</v>
+        <v>41334</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0.4</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" t="s">
-        <v>104</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>122</v>
+        <v>103</v>
+      </c>
+      <c r="G44">
+        <v>0.4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>103</v>
       </c>
       <c r="I44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17">
+        <v>102</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K44" t="s">
+        <v>130</v>
+      </c>
+      <c r="M44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="17">
-        <v>34984</v>
+        <v>41395</v>
       </c>
       <c r="C45" s="17">
-        <v>41334</v>
+        <v>43370</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" t="s">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>0.4</v>
       </c>
       <c r="F45" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>123</v>
+        <v>103</v>
+      </c>
+      <c r="G45">
+        <v>0.4</v>
+      </c>
+      <c r="H45" t="s">
+        <v>103</v>
       </c>
       <c r="I45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17">
+        <v>102</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K45" t="s">
+        <v>130</v>
+      </c>
+      <c r="M45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="17">
-        <v>41395</v>
-      </c>
-      <c r="C46" s="17">
-        <v>43370</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" t="s">
-        <v>104</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>121</v>
+        <v>103</v>
+      </c>
+      <c r="G46">
+        <f>E46</f>
+        <v>0.5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>103</v>
       </c>
       <c r="I46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="17">
+        <v>155</v>
+      </c>
+      <c r="J46" t="s">
+        <v>154</v>
+      </c>
+      <c r="K46" t="s">
+        <v>152</v>
+      </c>
+      <c r="M46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="17">
-        <v>29587</v>
+        <v>29952</v>
       </c>
       <c r="C47" s="17">
-        <v>33970</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>84</v>
+        <v>31524</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" t="s">
-        <v>104</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>124</v>
+        <v>103</v>
+      </c>
+      <c r="H47" t="s">
+        <v>103</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17">
+        <v>102</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="17">
-        <v>34335</v>
-      </c>
-      <c r="C48" s="17">
-        <v>36526</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="16">
-        <v>7.4999999999999997E-2</v>
+      <c r="B48" s="15">
+        <v>29587</v>
+      </c>
+      <c r="C48" s="15">
+        <v>29983</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>1E-3</v>
       </c>
       <c r="F48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" t="s">
-        <v>104</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>125</v>
+        <v>103</v>
+      </c>
+      <c r="G48">
+        <v>1E-3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>103</v>
       </c>
       <c r="I48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17">
+        <v>102</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="17">
-        <v>36892</v>
-      </c>
-      <c r="C49" s="17">
-        <v>37653</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="16">
-        <v>0.02</v>
+      <c r="B49" s="15">
+        <v>391982</v>
+      </c>
+      <c r="C49" s="15">
+        <v>31079</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>1E-3</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" t="s">
-        <v>104</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>126</v>
+        <v>103</v>
+      </c>
+      <c r="G49">
+        <v>1E-3</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
       </c>
       <c r="I49" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="17">
+        <v>102</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="17">
-        <v>36892</v>
-      </c>
-      <c r="C50" s="17">
-        <v>42216</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="16">
-        <v>0.02</v>
+      <c r="B50" s="15">
+        <v>31352</v>
+      </c>
+      <c r="C50" s="15">
+        <v>43344</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>1E-3</v>
       </c>
       <c r="F50" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>127</v>
+        <v>103</v>
+      </c>
+      <c r="G50">
+        <v>1E-3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>103</v>
       </c>
       <c r="I50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17">
+        <v>102</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="17">
-        <v>42217</v>
-      </c>
-      <c r="C51" s="17">
-        <v>42339</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="F51" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" t="s">
-        <v>104</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17">
+        <v>17</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="17">
-        <v>42370</v>
-      </c>
-      <c r="C52" s="17">
-        <v>43370</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="F52" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" t="s">
-        <v>104</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="K52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="D53" s="16"/>
     </row>
   </sheetData>
+  <sortState ref="A2:L53">
+    <sortCondition ref="D2:D53"/>
+    <sortCondition ref="G2:G53"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
+++ b/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hood.211/Dropbox/JMH_dropbox/stephanson2/projects/6_Research/IrenasPaper/bgc_meta/data/JMHnewMungedDat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE6A38-BC80-5D47-8E21-D8B9E1240B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE747CA8-C5A0-D749-A257-D495814F0DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{BC43E26C-2443-B84E-92D9-98FD3EC23313}"/>
+    <workbookView xWindow="51200" yWindow="1000" windowWidth="51200" windowHeight="28340" xr2:uid="{BC43E26C-2443-B84E-92D9-98FD3EC23313}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
   <si>
     <t>Location</t>
   </si>
@@ -319,10 +319,13 @@
     <t>DROP</t>
   </si>
   <si>
-    <t>We're missing DOC, does it exist?</t>
-  </si>
-  <si>
     <t>these are FWMC - need to exclude from code</t>
+  </si>
+  <si>
+    <t>DROPPED [TP (david says is TDP)]</t>
+  </si>
+  <si>
+    <t>DROPPED</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -461,6 +464,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -778,20 +784,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72083B0E-8DDB-0E46-A41E-82CD2F50A4BE}">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="C1:G1048576"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="23.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="14" width="23.33203125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="23.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="34" x14ac:dyDescent="0.2">
@@ -1741,12 +1745,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>83</v>
@@ -1772,15 +1773,21 @@
         <v>90</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>88</v>
+      <c r="F34" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>90</v>
@@ -1806,6 +1813,12 @@
       </c>
       <c r="J36" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <f>10^1.5</f>
+        <v>31.622776601683803</v>
       </c>
     </row>
   </sheetData>

--- a/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
+++ b/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25020" yWindow="0" windowWidth="25360" windowHeight="28220" activeTab="1"/>
+    <workbookView xWindow="24120" yWindow="0" windowWidth="25360" windowHeight="28340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="169">
   <si>
     <t>Location</t>
   </si>
@@ -487,9 +487,6 @@
     <t>all papers reference Ontario Ministry of the Environment 1983</t>
   </si>
   <si>
-    <t>varies- stored with data</t>
-  </si>
-  <si>
     <t>https://www.fs.usda.gov/rds/archive/products/RDS-ext-MEF/_metadata_RDS-ext-MEF-2021-0001.xml</t>
   </si>
   <si>
@@ -517,9 +514,6 @@
     <t>LOQ sometimes defined as 10x SD, assume precision reported here = SD</t>
   </si>
   <si>
-    <t>mg SO4/L</t>
-  </si>
-  <si>
     <t>as TKN</t>
   </si>
   <si>
@@ -533,6 +527,18 @@
   </si>
   <si>
     <t>as TP</t>
+  </si>
+  <si>
+    <t>applying rule of thumb that LOQ is ~2*DL</t>
+  </si>
+  <si>
+    <t>ueqL</t>
+  </si>
+  <si>
+    <t>values for SLP reflect most commonly used labs</t>
+  </si>
+  <si>
+    <t>USFS Durham</t>
   </si>
 </sst>
 </file>
@@ -652,7 +658,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -665,6 +671,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -741,7 +767,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="53">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -763,6 +789,16 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
@@ -774,6 +810,16 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2132,13 +2178,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="27.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" ht="30">
       <c r="A1" s="13" t="s">
@@ -2154,16 +2204,16 @@
         <v>96</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>97</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>98</v>
@@ -2175,33 +2225,34 @@
         <v>129</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="17">
-        <v>42217</v>
-      </c>
-      <c r="C2" s="17">
-        <v>42339</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0.01</v>
+      <c r="B2" s="15">
+        <v>29587</v>
+      </c>
+      <c r="C2" s="15">
+        <v>29983</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1E-3</v>
       </c>
       <c r="F2" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="16">
-        <v>0.01</v>
+      <c r="G2">
+        <f>E2*2</f>
+        <v>2E-3</v>
       </c>
       <c r="H2" t="s">
         <v>103</v>
@@ -2210,33 +2261,40 @@
         <v>102</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
         <v>130</v>
+      </c>
+      <c r="L2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="17">
-        <v>42370</v>
-      </c>
-      <c r="C3" s="17">
-        <v>43370</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.01</v>
+      <c r="B3" s="15">
+        <v>391982</v>
+      </c>
+      <c r="C3" s="15">
+        <v>31079</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
       </c>
       <c r="F3" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="16">
-        <v>0.01</v>
+      <c r="G3">
+        <f>E3*2</f>
+        <v>2E-3</v>
       </c>
       <c r="H3" t="s">
         <v>103</v>
@@ -2245,33 +2303,40 @@
         <v>102</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
         <v>130</v>
+      </c>
+      <c r="L3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="17">
-        <v>36892</v>
-      </c>
-      <c r="C4" s="17">
-        <v>37653</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.02</v>
+      <c r="B4" s="15">
+        <v>31352</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43344</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1E-3</v>
       </c>
       <c r="F4" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="16">
-        <v>0.02</v>
+      <c r="G4">
+        <f>E4*2</f>
+        <v>2E-3</v>
       </c>
       <c r="H4" t="s">
         <v>103</v>
@@ -2280,10 +2345,16 @@
         <v>102</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="K4" t="s">
         <v>130</v>
+      </c>
+      <c r="L4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2291,21 +2362,22 @@
         <v>38</v>
       </c>
       <c r="B5" s="17">
-        <v>36892</v>
+        <v>42217</v>
       </c>
       <c r="C5" s="17">
-        <v>42216</v>
+        <v>42339</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="16">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F5" t="s">
         <v>103</v>
       </c>
       <c r="G5" s="16">
+        <f>2*E5</f>
         <v>0.02</v>
       </c>
       <c r="H5" t="s">
@@ -2315,40 +2387,52 @@
         <v>102</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
         <v>130</v>
       </c>
+      <c r="L5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="17">
+        <v>42370</v>
+      </c>
+      <c r="C6" s="17">
+        <v>43370</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>0.05</v>
+      <c r="E6" s="16">
+        <v>0.01</v>
       </c>
       <c r="F6" t="s">
         <v>103</v>
       </c>
-      <c r="G6">
-        <f>E6</f>
-        <v>0.05</v>
+      <c r="G6" s="16">
+        <f>2*E6</f>
+        <v>0.02</v>
       </c>
       <c r="H6" t="s">
         <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J6" t="s">
-        <v>153</v>
+        <v>102</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="K6" t="s">
-        <v>152</v>
+        <v>130</v>
+      </c>
+      <c r="L6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2356,22 +2440,23 @@
         <v>38</v>
       </c>
       <c r="B7" s="17">
-        <v>34335</v>
+        <v>41395</v>
       </c>
       <c r="C7" s="17">
-        <v>36526</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="16">
-        <v>7.4999999999999997E-2</v>
+        <v>43370</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0.01</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="16">
-        <v>7.4999999999999997E-2</v>
+      <c r="G7">
+        <f>E7*2</f>
+        <v>0.02</v>
       </c>
       <c r="H7" t="s">
         <v>103</v>
@@ -2380,70 +2465,91 @@
         <v>102</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s">
         <v>130</v>
       </c>
+      <c r="L7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="17">
+        <v>36892</v>
+      </c>
+      <c r="C8" s="17">
+        <v>37653</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>0.25</v>
+      <c r="E8" s="16">
+        <v>0.02</v>
       </c>
       <c r="F8" t="s">
         <v>103</v>
       </c>
-      <c r="G8">
-        <f>E8</f>
-        <v>0.25</v>
+      <c r="G8" s="16">
+        <f>2*E8</f>
+        <v>0.04</v>
       </c>
       <c r="H8" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>148</v>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="L8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16">
       <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="17">
+        <v>36892</v>
+      </c>
+      <c r="C9" s="17">
+        <v>42216</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>0.06</v>
+      <c r="E9" s="16">
+        <v>0.02</v>
       </c>
       <c r="F9" t="s">
         <v>103</v>
       </c>
-      <c r="G9">
-        <f>E9*10</f>
-        <v>0.6</v>
+      <c r="G9" s="16">
+        <f>2*E9</f>
+        <v>0.04</v>
       </c>
       <c r="H9" t="s">
         <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="K9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16">
@@ -2451,54 +2557,65 @@
         <v>38</v>
       </c>
       <c r="B10" s="17">
-        <v>29587</v>
-      </c>
-      <c r="C10" s="17">
-        <v>33970</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="16"/>
+        <v>28856</v>
+      </c>
+      <c r="C10" s="15">
+        <v>34060</v>
+      </c>
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10">
+        <v>0.02</v>
+      </c>
       <c r="F10" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10">
+        <f>E10*2</f>
+        <v>0.04</v>
+      </c>
       <c r="H10" t="s">
         <v>103</v>
       </c>
       <c r="I10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>121</v>
+      <c r="J10" t="s">
+        <v>104</v>
       </c>
       <c r="K10" t="s">
         <v>130</v>
       </c>
+      <c r="L10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M10" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="16">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B11" s="17">
-        <v>31778</v>
+        <v>41395</v>
       </c>
       <c r="C11" s="17">
-        <v>35795</v>
+        <v>43370</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>0.04</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G11">
-        <f>E11*12*0.001</f>
-        <v>0.3</v>
+        <f>E11*2</f>
+        <v>0.08</v>
       </c>
       <c r="H11" t="s">
         <v>103</v>
@@ -2506,19 +2623,28 @@
       <c r="I11" t="s">
         <v>102</v>
       </c>
-      <c r="J11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>133</v>
+      <c r="J11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B12" s="15">
+        <v>34335</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43344</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -2527,77 +2653,104 @@
         <v>103</v>
       </c>
       <c r="G12">
-        <f>E12*10</f>
-        <v>0.5</v>
+        <f>E12*2</f>
+        <v>0.1</v>
       </c>
       <c r="H12" t="s">
         <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>160</v>
+        <v>165</v>
+      </c>
+      <c r="M12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B13" s="15">
+        <v>38718</v>
+      </c>
+      <c r="C13" s="15">
+        <v>39448</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="F13" t="s">
         <v>103</v>
       </c>
       <c r="G13">
-        <f>E13</f>
-        <v>1.5</v>
+        <f>E13*(32.065/(32.065+4*16))*2</f>
+        <v>0.13351376672044971</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="B14" s="17">
+        <v>39814</v>
+      </c>
+      <c r="C14" s="17">
+        <v>43370</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>4.4000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="G14">
-        <f>E14*0.001</f>
-        <v>4.4000000000000003E-3</v>
+        <f>E14*(32.065/(32.065+4*16))*2</f>
+        <v>0.13351376672044971</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>102</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="K14" t="s">
         <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16">
@@ -2605,22 +2758,23 @@
         <v>38</v>
       </c>
       <c r="B15" s="17">
-        <v>41395</v>
+        <v>34335</v>
       </c>
       <c r="C15" s="17">
-        <v>43370</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>0.01</v>
+        <v>36526</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="16">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F15" t="s">
         <v>103</v>
       </c>
-      <c r="G15">
-        <v>0.01</v>
+      <c r="G15" s="16">
+        <f>2*E15</f>
+        <v>0.15</v>
       </c>
       <c r="H15" t="s">
         <v>103</v>
@@ -2629,200 +2783,273 @@
         <v>102</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s">
         <v>130</v>
       </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B16" s="15">
+        <v>29221</v>
+      </c>
+      <c r="C16" s="15">
+        <v>30317</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>3.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="G16">
-        <f>E16*10</f>
-        <v>0.03</v>
+        <f>E16*(32.065/(32.065+4*16))*2</f>
+        <v>0.33378441680112425</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B17" s="15">
+        <v>30682</v>
+      </c>
+      <c r="C17" s="15">
+        <v>35065</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>9.7000000000000003E-2</v>
+        <v>0.5</v>
       </c>
       <c r="F17" t="s">
         <v>103</v>
       </c>
       <c r="G17">
-        <f>E17</f>
-        <v>9.7000000000000003E-2</v>
+        <f>E17*(32.065/(32.065+4*16))*2</f>
+        <v>0.33378441680112425</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>147</v>
+        <v>137</v>
+      </c>
+      <c r="I17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="17">
-        <v>29221</v>
-      </c>
-      <c r="C18" s="17">
-        <v>41334</v>
+      <c r="B18" s="15">
+        <v>35431</v>
+      </c>
+      <c r="C18" s="15">
+        <v>38353</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
       </c>
       <c r="F18" t="s">
         <v>103</v>
       </c>
+      <c r="G18">
+        <f>E18*(32.065/(32.065+4*16))*2</f>
+        <v>0.33378441680112425</v>
+      </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="I18" t="s">
         <v>102</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="17">
-        <v>35796</v>
+        <v>31778</v>
       </c>
       <c r="C19" s="17">
-        <v>42004</v>
+        <v>35795</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19">
+        <f>E19*12*0.001*2</f>
+        <v>0.6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>102</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>133</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="B20" s="17">
+        <v>31525</v>
+      </c>
+      <c r="C20" s="17">
+        <v>41334</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>1.1200000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="G20">
-        <f>E20*0.001</f>
-        <v>1.1200000000000001E-3</v>
+        <f>E20*2</f>
+        <v>0.8</v>
       </c>
       <c r="H20" t="s">
         <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>102</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="K20" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B21" s="17">
+        <v>41395</v>
+      </c>
+      <c r="C21" s="17">
+        <v>43370</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>1E-3</v>
+        <v>0.4</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="G21">
-        <f>E21*10</f>
-        <v>0.01</v>
+        <f>E21*2</f>
+        <v>0.8</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="K21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>165</v>
+      </c>
+      <c r="M21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="17">
-        <v>41395</v>
+        <v>29587</v>
       </c>
       <c r="C22" s="17">
-        <v>43370</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>0.04</v>
-      </c>
+        <v>33970</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="16"/>
       <c r="F22" t="s">
         <v>103</v>
       </c>
-      <c r="G22">
-        <v>0.04</v>
-      </c>
+      <c r="G22" s="16"/>
       <c r="H22" t="s">
         <v>103</v>
       </c>
@@ -2830,43 +3057,48 @@
         <v>102</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K22" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="L22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B23" s="17">
+        <v>29221</v>
+      </c>
+      <c r="C23" s="17">
+        <v>41334</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
         <v>103</v>
       </c>
-      <c r="G23">
-        <f>E23*(14/(14+16*3))</f>
-        <v>6.774193548387096E-2</v>
-      </c>
       <c r="H23" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>145</v>
+      <c r="I23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>130</v>
+      </c>
+      <c r="L23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -2894,8 +3126,11 @@
       <c r="K24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="L24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -2923,380 +3158,385 @@
       <c r="K25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="L25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B26" s="17">
-        <v>35796</v>
+        <v>29952</v>
       </c>
       <c r="C26" s="17">
-        <v>42004</v>
+        <v>31524</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>145</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" t="s">
+        <v>165</v>
+      </c>
+      <c r="M26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>135</v>
       </c>
       <c r="E27">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="F27" t="s">
         <v>139</v>
       </c>
       <c r="G27">
-        <f>E27*10</f>
-        <v>0.01</v>
+        <f>E27</f>
+        <v>0.02</v>
       </c>
       <c r="H27" t="s">
         <v>139</v>
       </c>
-      <c r="I27" t="s">
-        <v>134</v>
+      <c r="I27" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="K27" t="s">
-        <v>136</v>
-      </c>
-      <c r="L27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="G28">
-        <f>E28</f>
-        <v>0.02</v>
+        <f>E28*(14/(14+16*3))</f>
+        <v>6.774193548387096E-2</v>
       </c>
       <c r="H28" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>140</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>0.02</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F29" t="s">
         <v>103</v>
       </c>
       <c r="G29">
         <f>E29</f>
-        <v>0.02</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="H29" t="s">
         <v>103</v>
       </c>
-      <c r="I29" t="s">
-        <v>155</v>
-      </c>
-      <c r="J29" t="s">
-        <v>145</v>
+      <c r="I29" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="K29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="15">
-        <v>38718</v>
-      </c>
-      <c r="C30" s="15">
-        <v>39448</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F30" t="s">
         <v>103</v>
       </c>
       <c r="G30">
-        <v>0.2</v>
+        <f>E30</f>
+        <v>0.25</v>
       </c>
       <c r="H30" t="s">
         <v>103</v>
       </c>
-      <c r="I30" t="s">
-        <v>102</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>112</v>
+      <c r="I30" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="K30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="17">
-        <v>39814</v>
-      </c>
-      <c r="C31" s="17">
-        <v>43370</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="E31">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F31" t="s">
         <v>103</v>
       </c>
       <c r="G31">
-        <v>0.2</v>
+        <f>E31</f>
+        <v>0.3</v>
       </c>
       <c r="H31" t="s">
         <v>103</v>
       </c>
-      <c r="I31" t="s">
-        <v>102</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>113</v>
+      <c r="I31" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="K31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="15">
-        <v>29221</v>
-      </c>
-      <c r="C32" s="15">
-        <v>30317</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>103</v>
       </c>
       <c r="G32">
-        <v>0.5</v>
+        <f>E32*(32.065/(32.065+4*16))</f>
+        <v>0.33378441680112425</v>
       </c>
       <c r="H32" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" t="s">
-        <v>102</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>109</v>
+        <v>137</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="K32" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="15">
-        <v>30682</v>
-      </c>
-      <c r="C33" s="15">
-        <v>35065</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F33" t="s">
         <v>103</v>
       </c>
       <c r="G33">
-        <v>0.5</v>
+        <f>E33</f>
+        <v>1.5</v>
       </c>
       <c r="H33" t="s">
         <v>103</v>
       </c>
-      <c r="I33" t="s">
-        <v>102</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>110</v>
+      <c r="I33" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K33" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="15">
-        <v>35431</v>
-      </c>
-      <c r="C34" s="15">
-        <v>38353</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="F34" t="s">
         <v>103</v>
       </c>
       <c r="G34">
-        <v>0.5</v>
+        <f>E34*(32.065/(32.065+4*16))*2</f>
+        <v>1.335137667204497E-2</v>
       </c>
       <c r="H34" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>102</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>111</v>
+        <v>154</v>
+      </c>
+      <c r="J34" t="s">
+        <v>145</v>
       </c>
       <c r="K34" t="s">
-        <v>130</v>
+        <v>151</v>
+      </c>
+      <c r="L34" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35">
-        <f>10*E35*((32.065+4*16))/32.065</f>
-        <v>0.59918914704506476</v>
+        <v>103</v>
+      </c>
+      <c r="G35" s="16">
+        <f>2*E35</f>
+        <v>0.1</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
+        <v>154</v>
+      </c>
+      <c r="J35" t="s">
+        <v>152</v>
       </c>
       <c r="K35" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L35" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36">
+        <f>E36*2</f>
         <v>1</v>
       </c>
-      <c r="F36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36">
-        <f>E36</f>
-        <v>1</v>
-      </c>
       <c r="H36" t="s">
         <v>103</v>
       </c>
-      <c r="I36" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>145</v>
+      <c r="I36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J36" t="s">
+        <v>153</v>
       </c>
       <c r="K36" t="s">
-        <v>141</v>
+        <v>151</v>
+      </c>
+      <c r="L36" t="s">
+        <v>165</v>
+      </c>
+      <c r="M36" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G37">
-        <f>E37</f>
-        <v>0.3</v>
+        <f>E37*0.001*2</f>
+        <v>1E-3</v>
       </c>
       <c r="H37" t="s">
         <v>103</v>
       </c>
-      <c r="I37" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>144</v>
+      <c r="I37" t="s">
+        <v>128</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="L37" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3304,17 +3544,17 @@
         <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>0.5</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F38" t="s">
         <v>127</v>
       </c>
       <c r="G38">
-        <f>E38*0.001</f>
-        <v>5.0000000000000001E-4</v>
+        <f>E38*0.001*2</f>
+        <v>2.2400000000000002E-3</v>
       </c>
       <c r="H38" t="s">
         <v>103</v>
@@ -3325,35 +3565,38 @@
       <c r="K38" t="s">
         <v>130</v>
       </c>
+      <c r="L38" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>2E-3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G39">
-        <f>E39*10</f>
-        <v>0.02</v>
+        <f>E39*0.001*2</f>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="H39" t="s">
         <v>103</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K39" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3361,20 +3604,20 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="G40">
         <f>E40*10</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H40" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="I40" t="s">
         <v>134</v>
@@ -3383,326 +3626,260 @@
         <v>136</v>
       </c>
       <c r="L40" t="s">
-        <v>160</v>
-      </c>
-      <c r="M40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="17">
-        <v>28856</v>
-      </c>
-      <c r="C41" s="15">
-        <v>34060</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>1E-3</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G41">
-        <v>0.02</v>
+        <f>E41*10</f>
+        <v>0.01</v>
       </c>
       <c r="H41" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
-      </c>
-      <c r="J41" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="K41" t="s">
-        <v>130</v>
-      </c>
-      <c r="M41" t="s">
-        <v>164</v>
+        <v>136</v>
+      </c>
+      <c r="L41" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="15">
-        <v>34335</v>
-      </c>
-      <c r="C42" s="15">
-        <v>43344</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="G42">
-        <v>0.05</v>
+        <f>E42</f>
+        <v>0.02</v>
       </c>
       <c r="H42" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="I42" t="s">
-        <v>102</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="K42" t="s">
-        <v>130</v>
-      </c>
-      <c r="M42" t="s">
-        <v>164</v>
+        <v>136</v>
+      </c>
+      <c r="L42" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="15">
-        <v>34090</v>
-      </c>
-      <c r="C43" s="15">
-        <v>34304</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43" t="s">
-        <v>84</v>
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>2E-3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43">
+        <f>E43*10</f>
+        <v>0.02</v>
+      </c>
+      <c r="H43" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" t="s">
+        <v>134</v>
       </c>
       <c r="K43" t="s">
-        <v>130</v>
-      </c>
-      <c r="M43" t="s">
-        <v>164</v>
+        <v>136</v>
+      </c>
+      <c r="L43" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="17">
-        <v>31525</v>
-      </c>
-      <c r="C44" s="17">
-        <v>41334</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>0.4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="G44">
-        <v>0.4</v>
+        <f>E44*10</f>
+        <v>0.03</v>
       </c>
       <c r="H44" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="I44" t="s">
-        <v>102</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="K44" t="s">
-        <v>130</v>
-      </c>
-      <c r="M44" t="s">
-        <v>165</v>
+        <v>136</v>
+      </c>
+      <c r="L44" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="17">
-        <v>41395</v>
-      </c>
-      <c r="C45" s="17">
-        <v>43370</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="E45">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="F45" t="s">
         <v>103</v>
       </c>
       <c r="G45">
-        <v>0.4</v>
+        <f>E45*10</f>
+        <v>0.1</v>
       </c>
       <c r="H45" t="s">
         <v>103</v>
       </c>
       <c r="I45" t="s">
-        <v>102</v>
-      </c>
-      <c r="J45" s="16" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="K45" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="L45" t="s">
+        <v>159</v>
       </c>
       <c r="M45" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
       </c>
       <c r="E46">
+        <v>0.05</v>
+      </c>
+      <c r="F46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46">
+        <f>E46*10</f>
         <v>0.5</v>
       </c>
-      <c r="F46" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46">
-        <f>E46</f>
-        <v>0.5</v>
-      </c>
       <c r="H46" t="s">
         <v>103</v>
       </c>
       <c r="I46" t="s">
-        <v>155</v>
-      </c>
-      <c r="J46" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="K46" t="s">
-        <v>152</v>
-      </c>
-      <c r="M46" t="s">
-        <v>165</v>
+        <v>136</v>
+      </c>
+      <c r="L46" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="17">
-        <v>29952</v>
-      </c>
-      <c r="C47" s="17">
-        <v>31524</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0.06</v>
       </c>
       <c r="F47" t="s">
         <v>103</v>
       </c>
+      <c r="G47">
+        <f>E47*10</f>
+        <v>0.6</v>
+      </c>
       <c r="H47" t="s">
         <v>103</v>
       </c>
       <c r="I47" t="s">
-        <v>102</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="K47" t="s">
-        <v>130</v>
-      </c>
-      <c r="M47" t="s">
-        <v>165</v>
+        <v>136</v>
+      </c>
+      <c r="L47" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="15">
-        <v>29587</v>
-      </c>
-      <c r="C48" s="15">
-        <v>29983</v>
+        <v>15</v>
+      </c>
+      <c r="B48" s="17">
+        <v>35796</v>
+      </c>
+      <c r="C48" s="17">
+        <v>42004</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48">
-        <v>1E-3</v>
-      </c>
-      <c r="F48" t="s">
-        <v>103</v>
-      </c>
-      <c r="G48">
-        <v>1E-3</v>
-      </c>
-      <c r="H48" t="s">
-        <v>103</v>
-      </c>
-      <c r="I48" t="s">
-        <v>102</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K48" t="s">
-        <v>130</v>
-      </c>
-      <c r="M48" t="s">
-        <v>166</v>
+        <v>5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>145</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="15">
-        <v>391982</v>
-      </c>
-      <c r="C49" s="15">
-        <v>31079</v>
+        <v>15</v>
+      </c>
+      <c r="B49" s="17">
+        <v>35796</v>
+      </c>
+      <c r="C49" s="17">
+        <v>42004</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49">
-        <v>1E-3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49">
-        <v>1E-3</v>
-      </c>
-      <c r="H49" t="s">
-        <v>103</v>
-      </c>
-      <c r="I49" t="s">
-        <v>102</v>
-      </c>
-      <c r="J49" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K49" t="s">
-        <v>130</v>
-      </c>
-      <c r="M49" t="s">
-        <v>166</v>
+        <v>6</v>
+      </c>
+      <c r="J49" t="s">
+        <v>145</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3710,37 +3887,22 @@
         <v>38</v>
       </c>
       <c r="B50" s="15">
-        <v>31352</v>
+        <v>34090</v>
       </c>
       <c r="C50" s="15">
-        <v>43344</v>
+        <v>34304</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50">
-        <v>1E-3</v>
-      </c>
-      <c r="F50" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50">
-        <v>1E-3</v>
-      </c>
-      <c r="H50" t="s">
-        <v>103</v>
-      </c>
-      <c r="I50" t="s">
-        <v>102</v>
-      </c>
-      <c r="J50" s="16" t="s">
-        <v>108</v>
+        <v>142</v>
+      </c>
+      <c r="J50" t="s">
+        <v>84</v>
       </c>
       <c r="K50" t="s">
         <v>130</v>
       </c>
       <c r="M50" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3755,16 +3917,170 @@
       <c r="A52" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K52" t="s">
-        <v>151</v>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>1.4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52">
+        <f>2*E52*40.078/2*0.001</f>
+        <v>5.6109200000000005E-2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" t="s">
+        <v>102</v>
+      </c>
+      <c r="L52" t="s">
+        <v>167</v>
+      </c>
+      <c r="M52" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="D53" s="16"/>
+      <c r="A53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>0.2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53">
+        <f>2*E53</f>
+        <v>0.4</v>
+      </c>
+      <c r="H53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I53" t="s">
+        <v>102</v>
+      </c>
+      <c r="L53" t="s">
+        <v>167</v>
+      </c>
+      <c r="M53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>0.22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54">
+        <f>2*E54*14*0.001</f>
+        <v>6.1600000000000005E-3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I54" t="s">
+        <v>102</v>
+      </c>
+      <c r="L54" t="s">
+        <v>167</v>
+      </c>
+      <c r="M54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0.32</v>
+      </c>
+      <c r="F55" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55">
+        <f>2*E55*14*0.001</f>
+        <v>8.9600000000000009E-3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L55" t="s">
+        <v>167</v>
+      </c>
+      <c r="M55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>3.12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>166</v>
+      </c>
+      <c r="G56">
+        <f>2*E56*32.065/2*0.001</f>
+        <v>0.1000428</v>
+      </c>
+      <c r="H56" t="s">
+        <v>137</v>
+      </c>
+      <c r="I56" t="s">
+        <v>102</v>
+      </c>
+      <c r="L56" t="s">
+        <v>167</v>
+      </c>
+      <c r="M56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:L53">
-    <sortCondition ref="D2:D53"/>
+  <sortState ref="A2:M53">
+    <sortCondition ref="I2:I53"/>
     <sortCondition ref="G2:G53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
+++ b/data/JMHnewMungedDat/00_WatershedDataNotes.xlsx
@@ -1124,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2181,7 +2181,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2235,24 +2235,24 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="15">
-        <v>29587</v>
-      </c>
-      <c r="C2" s="15">
-        <v>29983</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>1E-3</v>
+      <c r="B2" s="17">
+        <v>42217</v>
+      </c>
+      <c r="C2" s="17">
+        <v>42339</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0.01</v>
       </c>
       <c r="F2" t="s">
         <v>103</v>
       </c>
-      <c r="G2">
-        <f>E2*2</f>
-        <v>2E-3</v>
+      <c r="G2" s="16">
+        <f>2*E2</f>
+        <v>0.02</v>
       </c>
       <c r="H2" t="s">
         <v>103</v>
@@ -2261,40 +2261,37 @@
         <v>102</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="K2" t="s">
         <v>130</v>
       </c>
       <c r="L2" t="s">
         <v>165</v>
-      </c>
-      <c r="M2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="15">
-        <v>391982</v>
-      </c>
-      <c r="C3" s="15">
-        <v>31079</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>1E-3</v>
+      <c r="B3" s="17">
+        <v>42370</v>
+      </c>
+      <c r="C3" s="17">
+        <v>43370</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.01</v>
       </c>
       <c r="F3" t="s">
         <v>103</v>
       </c>
-      <c r="G3">
-        <f>E3*2</f>
-        <v>2E-3</v>
+      <c r="G3" s="16">
+        <f>2*E3</f>
+        <v>0.02</v>
       </c>
       <c r="H3" t="s">
         <v>103</v>
@@ -2303,40 +2300,37 @@
         <v>102</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
         <v>130</v>
       </c>
       <c r="L3" t="s">
         <v>165</v>
-      </c>
-      <c r="M3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="15">
-        <v>31352</v>
-      </c>
-      <c r="C4" s="15">
-        <v>43344</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>1E-3</v>
+      <c r="B4" s="17">
+        <v>36892</v>
+      </c>
+      <c r="C4" s="17">
+        <v>37653</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.02</v>
       </c>
       <c r="F4" t="s">
         <v>103</v>
       </c>
-      <c r="G4">
-        <f>E4*2</f>
-        <v>2E-3</v>
+      <c r="G4" s="16">
+        <f>2*E4</f>
+        <v>0.04</v>
       </c>
       <c r="H4" t="s">
         <v>103</v>
@@ -2345,16 +2339,13 @@
         <v>102</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
         <v>130</v>
       </c>
       <c r="L4" t="s">
         <v>165</v>
-      </c>
-      <c r="M4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2362,23 +2353,23 @@
         <v>38</v>
       </c>
       <c r="B5" s="17">
-        <v>42217</v>
+        <v>36892</v>
       </c>
       <c r="C5" s="17">
-        <v>42339</v>
+        <v>42216</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="16">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F5" t="s">
         <v>103</v>
       </c>
       <c r="G5" s="16">
         <f>2*E5</f>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H5" t="s">
         <v>103</v>
@@ -2387,7 +2378,7 @@
         <v>102</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
         <v>130</v>
@@ -2398,26 +2389,20 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="17">
-        <v>42370</v>
-      </c>
-      <c r="C6" s="17">
-        <v>43370</v>
-      </c>
-      <c r="D6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="16">
-        <v>0.01</v>
+      <c r="E6">
+        <v>1.4</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="16">
-        <f>2*E6</f>
-        <v>0.02</v>
+        <v>166</v>
+      </c>
+      <c r="G6">
+        <f>2*E6*40.078/2*0.001</f>
+        <v>5.6109200000000005E-2</v>
       </c>
       <c r="H6" t="s">
         <v>103</v>
@@ -2425,50 +2410,41 @@
       <c r="I6" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" t="s">
-        <v>130</v>
-      </c>
       <c r="L6" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="M6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="17">
-        <v>41395</v>
-      </c>
-      <c r="C7" s="17">
-        <v>43370</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
       </c>
-      <c r="G7">
-        <f>E7*2</f>
-        <v>0.02</v>
+      <c r="G7" s="16">
+        <f>2*E7</f>
+        <v>0.1</v>
       </c>
       <c r="H7" t="s">
         <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>118</v>
+        <v>154</v>
+      </c>
+      <c r="J7" t="s">
+        <v>152</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L7" t="s">
         <v>165</v>
@@ -2479,23 +2455,23 @@
         <v>38</v>
       </c>
       <c r="B8" s="17">
-        <v>36892</v>
+        <v>34335</v>
       </c>
       <c r="C8" s="17">
-        <v>37653</v>
+        <v>36526</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="16">
-        <v>0.02</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F8" t="s">
         <v>103</v>
       </c>
       <c r="G8" s="16">
         <f>2*E8</f>
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="H8" t="s">
         <v>103</v>
@@ -2504,7 +2480,7 @@
         <v>102</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s">
         <v>130</v>
@@ -2515,108 +2491,82 @@
     </row>
     <row r="9" spans="1:13" ht="16">
       <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="17">
-        <v>36892</v>
-      </c>
-      <c r="C9" s="17">
-        <v>42216</v>
-      </c>
-      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="16">
-        <v>0.02</v>
+      <c r="E9">
+        <v>0.25</v>
       </c>
       <c r="F9" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="16">
-        <f>2*E9</f>
-        <v>0.04</v>
+      <c r="G9">
+        <f>E9</f>
+        <v>0.25</v>
       </c>
       <c r="H9" t="s">
         <v>103</v>
       </c>
-      <c r="I9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>124</v>
+      <c r="I9" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="17">
-        <v>28856</v>
-      </c>
-      <c r="C10" s="15">
-        <v>34060</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F10" t="s">
         <v>103</v>
       </c>
       <c r="G10">
-        <f>E10*2</f>
-        <v>0.04</v>
+        <f>E10*10</f>
+        <v>0.6</v>
       </c>
       <c r="H10" t="s">
         <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s">
-        <v>165</v>
-      </c>
-      <c r="M10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="17">
-        <v>41395</v>
+        <v>29587</v>
       </c>
       <c r="C11" s="17">
-        <v>43370</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>0.04</v>
-      </c>
+        <v>33970</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="16"/>
       <c r="F11" t="s">
         <v>103</v>
       </c>
-      <c r="G11">
-        <f>E11*2</f>
-        <v>0.08</v>
-      </c>
+      <c r="G11" s="16"/>
       <c r="H11" t="s">
         <v>103</v>
       </c>
@@ -2624,7 +2574,7 @@
         <v>102</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
         <v>130</v>
@@ -2633,28 +2583,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16">
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="15">
-        <v>34335</v>
-      </c>
-      <c r="C12" s="15">
-        <v>43344</v>
-      </c>
-      <c r="D12" t="s">
-        <v>142</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F12" t="s">
         <v>103</v>
       </c>
       <c r="G12">
-        <f>E12*2</f>
-        <v>0.1</v>
+        <f>2*E12</f>
+        <v>0.4</v>
       </c>
       <c r="H12" t="s">
         <v>103</v>
@@ -2662,119 +2606,104 @@
       <c r="I12" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" t="s">
-        <v>130</v>
-      </c>
       <c r="L12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="15">
-        <v>38718</v>
-      </c>
-      <c r="C13" s="15">
-        <v>39448</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F13" t="s">
         <v>103</v>
       </c>
       <c r="G13">
-        <f>E13*(32.065/(32.065+4*16))*2</f>
-        <v>0.13351376672044971</v>
+        <f>E13*10</f>
+        <v>0.5</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B14" s="17">
-        <v>39814</v>
+        <v>31778</v>
       </c>
       <c r="C14" s="17">
-        <v>43370</v>
+        <v>35795</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>0.2</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="G14">
-        <f>E14*(32.065/(32.065+4*16))*2</f>
-        <v>0.13351376672044971</v>
+        <f>E14*12*0.001*2</f>
+        <v>0.6</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" t="s">
-        <v>130</v>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="L14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16">
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="17">
-        <v>34335</v>
+        <v>31525</v>
       </c>
       <c r="C15" s="17">
-        <v>36526</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="16">
-        <v>7.4999999999999997E-2</v>
+        <v>41334</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0.4</v>
       </c>
       <c r="F15" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="16">
-        <f>2*E15</f>
-        <v>0.15</v>
+      <c r="G15">
+        <f>E15*2</f>
+        <v>0.8</v>
       </c>
       <c r="H15" t="s">
         <v>103</v>
@@ -2783,46 +2712,49 @@
         <v>102</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K15" t="s">
         <v>130</v>
       </c>
       <c r="L15" t="s">
         <v>165</v>
+      </c>
+      <c r="M15" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="15">
-        <v>29221</v>
-      </c>
-      <c r="C16" s="15">
-        <v>30317</v>
+      <c r="B16" s="17">
+        <v>41395</v>
+      </c>
+      <c r="C16" s="17">
+        <v>43370</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
       </c>
       <c r="G16">
-        <f>E16*(32.065/(32.065+4*16))*2</f>
-        <v>0.33378441680112425</v>
+        <f>E16*2</f>
+        <v>0.8</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
         <v>102</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K16" t="s">
         <v>130</v>
@@ -2830,19 +2762,16 @@
       <c r="L16" t="s">
         <v>165</v>
       </c>
+      <c r="M16" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="15">
-        <v>30682</v>
-      </c>
-      <c r="C17" s="15">
-        <v>35065</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>0.5</v>
@@ -2851,86 +2780,73 @@
         <v>103</v>
       </c>
       <c r="G17">
-        <f>E17*(32.065/(32.065+4*16))*2</f>
-        <v>0.33378441680112425</v>
+        <f>E17*2</f>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>110</v>
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16">
       <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="15">
-        <v>35431</v>
-      </c>
-      <c r="C18" s="15">
-        <v>38353</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F18" t="s">
         <v>103</v>
       </c>
       <c r="G18">
-        <f>E18*(32.065/(32.065+4*16))*2</f>
-        <v>0.33378441680112425</v>
+        <f>E18</f>
+        <v>1.5</v>
       </c>
       <c r="H18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B19" s="17">
-        <v>31778</v>
+        <v>29952</v>
       </c>
       <c r="C19" s="17">
-        <v>35795</v>
+        <v>31524</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
-      <c r="E19">
-        <v>25</v>
-      </c>
       <c r="F19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19">
-        <f>E19*12*0.001*2</f>
-        <v>0.6</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
         <v>103</v>
@@ -2938,98 +2854,77 @@
       <c r="I19" t="s">
         <v>102</v>
       </c>
-      <c r="J19" t="s">
-        <v>132</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>133</v>
+      <c r="J19" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" t="s">
+        <v>130</v>
       </c>
       <c r="L19" t="s">
         <v>165</v>
       </c>
+      <c r="M19" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="17">
-        <v>31525</v>
-      </c>
-      <c r="C20" s="17">
-        <v>41334</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="G20">
-        <f>E20*2</f>
-        <v>0.8</v>
+        <f>2*E20*14*0.001</f>
+        <v>6.1600000000000005E-3</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="I20" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" t="s">
-        <v>130</v>
-      </c>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M20" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="17">
-        <v>41395</v>
-      </c>
-      <c r="C21" s="17">
-        <v>43370</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>0.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G21">
-        <f>E21*2</f>
-        <v>0.8</v>
+        <f>E21*0.001*2</f>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="H21" t="s">
         <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K21" t="s">
         <v>130</v>
       </c>
       <c r="L21" t="s">
         <v>165</v>
-      </c>
-      <c r="M21" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -3037,19 +2932,24 @@
         <v>38</v>
       </c>
       <c r="B22" s="17">
-        <v>29587</v>
+        <v>41395</v>
       </c>
       <c r="C22" s="17">
-        <v>33970</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="16"/>
+        <v>43370</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>0.01</v>
+      </c>
       <c r="F22" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22">
+        <f>E22*2</f>
+        <v>0.02</v>
+      </c>
       <c r="H22" t="s">
         <v>103</v>
       </c>
@@ -3057,7 +2957,7 @@
         <v>102</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K22" t="s">
         <v>130</v>
@@ -3068,66 +2968,62 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="17">
-        <v>29221</v>
-      </c>
-      <c r="C23" s="17">
-        <v>41334</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
+      <c r="E23">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>138</v>
+      </c>
+      <c r="G23">
+        <f>E23*10</f>
+        <v>0.03</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16">
       <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="17">
-        <v>29221</v>
-      </c>
-      <c r="C24" s="17">
-        <v>34983</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F24" t="s">
         <v>103</v>
       </c>
+      <c r="G24">
+        <f>E24</f>
+        <v>9.7000000000000003E-2</v>
+      </c>
       <c r="H24" t="s">
         <v>103</v>
       </c>
-      <c r="I24" t="s">
-        <v>102</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>119</v>
+      <c r="I24" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="K24" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3135,13 +3031,13 @@
         <v>38</v>
       </c>
       <c r="B25" s="17">
-        <v>34984</v>
+        <v>29221</v>
       </c>
       <c r="C25" s="17">
         <v>41334</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
         <v>103</v>
@@ -3153,7 +3049,7 @@
         <v>102</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K25" t="s">
         <v>130</v>
@@ -3164,145 +3060,130 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B26" s="17">
-        <v>29952</v>
+        <v>35796</v>
       </c>
       <c r="C26" s="17">
-        <v>31524</v>
+        <v>42004</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" t="s">
-        <v>102</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" t="s">
-        <v>130</v>
-      </c>
-      <c r="L26" t="s">
-        <v>165</v>
-      </c>
-      <c r="M26" t="s">
-        <v>163</v>
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>0.02</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G27">
-        <f>E27</f>
-        <v>0.02</v>
+        <f>E27*0.001*2</f>
+        <v>2.2400000000000002E-3</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>146</v>
+        <v>103</v>
+      </c>
+      <c r="I27" t="s">
+        <v>128</v>
       </c>
       <c r="K27" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="L27" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="G28">
-        <f>E28*(14/(14+16*3))</f>
-        <v>6.774193548387096E-2</v>
+        <f>2*E28*14*0.001</f>
+        <v>8.9600000000000009E-3</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K28" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="I28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>9.7000000000000003E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="G29">
-        <f>E29</f>
-        <v>9.7000000000000003E-2</v>
+        <f>E29*10</f>
+        <v>0.01</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>147</v>
+        <v>138</v>
+      </c>
+      <c r="I29" t="s">
+        <v>134</v>
       </c>
       <c r="K29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>136</v>
+      </c>
+      <c r="L29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F30" t="s">
         <v>103</v>
       </c>
       <c r="G30">
-        <f>E30</f>
-        <v>0.25</v>
+        <f>E30*(14/(14+16*3))</f>
+        <v>6.774193548387096E-2</v>
       </c>
       <c r="H30" t="s">
         <v>103</v>
@@ -3311,7 +3192,7 @@
         <v>140</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K30" t="s">
         <v>141</v>
@@ -3319,221 +3200,215 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B31" s="17">
+        <v>41395</v>
+      </c>
+      <c r="C31" s="17">
+        <v>43370</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
       <c r="F31" t="s">
         <v>103</v>
       </c>
       <c r="G31">
-        <f>E31</f>
-        <v>0.3</v>
+        <f>E31*2</f>
+        <v>0.08</v>
       </c>
       <c r="H31" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>144</v>
+      <c r="I31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="K31" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="L31" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B32" s="17">
+        <v>29221</v>
+      </c>
+      <c r="C32" s="17">
+        <v>34983</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
         <v>103</v>
       </c>
-      <c r="G32">
-        <f>E32*(32.065/(32.065+4*16))</f>
-        <v>0.33378441680112425</v>
-      </c>
       <c r="H32" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>145</v>
+        <v>103</v>
+      </c>
+      <c r="I32" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="K32" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="L32" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B33" s="17">
+        <v>34984</v>
+      </c>
+      <c r="C33" s="17">
+        <v>41334</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
         <v>103</v>
       </c>
-      <c r="G33">
-        <f>E33</f>
-        <v>1.5</v>
-      </c>
       <c r="H33" t="s">
         <v>103</v>
       </c>
-      <c r="I33" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>143</v>
+      <c r="I33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="K33" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="L33" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="B34" s="17">
+        <v>35796</v>
+      </c>
+      <c r="C34" s="17">
+        <v>42004</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34">
-        <v>0.02</v>
-      </c>
-      <c r="F34" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34">
-        <f>E34*(32.065/(32.065+4*16))*2</f>
-        <v>1.335137667204497E-2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>137</v>
-      </c>
-      <c r="I34" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="J34" t="s">
         <v>145</v>
       </c>
-      <c r="K34" t="s">
-        <v>151</v>
-      </c>
-      <c r="L34" t="s">
-        <v>165</v>
+      <c r="K34" s="18" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="E35">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="16">
-        <f>2*E35</f>
-        <v>0.1</v>
+        <v>139</v>
+      </c>
+      <c r="G35">
+        <f>E35*10</f>
+        <v>0.01</v>
       </c>
       <c r="H35" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="I35" t="s">
-        <v>154</v>
-      </c>
-      <c r="J35" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="K35" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="16">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="E36">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G36">
-        <f>E36*2</f>
-        <v>1</v>
+        <f>E36</f>
+        <v>0.02</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
-      </c>
-      <c r="I36" t="s">
-        <v>154</v>
-      </c>
-      <c r="J36" t="s">
-        <v>153</v>
+        <v>139</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="K36" t="s">
-        <v>151</v>
-      </c>
-      <c r="L36" t="s">
-        <v>165</v>
-      </c>
-      <c r="M36" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="G37">
-        <f>E37*0.001*2</f>
-        <v>1E-3</v>
+        <f>E37*(32.065/(32.065+4*16))*2</f>
+        <v>1.335137667204497E-2</v>
       </c>
       <c r="H37" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>128</v>
+        <v>154</v>
+      </c>
+      <c r="J37" t="s">
+        <v>145</v>
       </c>
       <c r="K37" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="L37" t="s">
         <v>165</v>
@@ -3541,345 +3416,434 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>1.1200000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G38">
-        <f>E38*0.001*2</f>
-        <v>2.2400000000000002E-3</v>
+        <f>E38</f>
+        <v>0.02</v>
       </c>
       <c r="H38" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K38" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>4.4000000000000004</v>
+        <v>3.12</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="G39">
-        <f>E39*0.001*2</f>
-        <v>8.8000000000000005E-3</v>
+        <f>2*E39*32.065/2*0.001</f>
+        <v>0.1000428</v>
       </c>
       <c r="H39" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="I39" t="s">
-        <v>128</v>
-      </c>
-      <c r="K39" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="M39" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B40" s="15">
+        <v>38718</v>
+      </c>
+      <c r="C40" s="15">
+        <v>39448</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>1E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F40" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="G40">
-        <f>E40*10</f>
-        <v>0.01</v>
+        <f>E40*(32.065/(32.065+4*16))*2</f>
+        <v>0.13351376672044971</v>
       </c>
       <c r="H40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I40" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="K40" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B41" s="17">
+        <v>39814</v>
+      </c>
+      <c r="C41" s="17">
+        <v>43370</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>1E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="G41">
-        <f>E41*10</f>
-        <v>0.01</v>
+        <f>E41*(32.065/(32.065+4*16))*2</f>
+        <v>0.13351376672044971</v>
       </c>
       <c r="H41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="K41" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B42" s="15">
+        <v>29221</v>
+      </c>
+      <c r="C42" s="15">
+        <v>30317</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="E42">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="F42" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="G42">
-        <f>E42</f>
-        <v>0.02</v>
+        <f>E42*(32.065/(32.065+4*16))*2</f>
+        <v>0.33378441680112425</v>
       </c>
       <c r="H42" t="s">
         <v>137</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="K42" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B43" s="15">
+        <v>30682</v>
+      </c>
+      <c r="C43" s="15">
+        <v>35065</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>2E-3</v>
+        <v>0.5</v>
       </c>
       <c r="F43" t="s">
         <v>103</v>
       </c>
       <c r="G43">
-        <f>E43*10</f>
-        <v>0.02</v>
+        <f>E43*(32.065/(32.065+4*16))*2</f>
+        <v>0.33378441680112425</v>
       </c>
       <c r="H43" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="I43" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="K43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B44" s="15">
+        <v>35431</v>
+      </c>
+      <c r="C44" s="15">
+        <v>38353</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>3.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="G44">
-        <f>E44*10</f>
-        <v>0.03</v>
+        <f>E44*(32.065/(32.065+4*16))*2</f>
+        <v>0.33378441680112425</v>
       </c>
       <c r="H44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I44" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="K44" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="16">
       <c r="A45" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>103</v>
       </c>
       <c r="G45">
-        <f>E45*10</f>
-        <v>0.1</v>
+        <f>E45*(32.065/(32.065+4*16))</f>
+        <v>0.33378441680112425</v>
       </c>
       <c r="H45" t="s">
-        <v>103</v>
-      </c>
-      <c r="I45" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="K45" t="s">
-        <v>136</v>
-      </c>
-      <c r="L45" t="s">
-        <v>159</v>
-      </c>
-      <c r="M45" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B46" s="17">
+        <v>28856</v>
+      </c>
+      <c r="C46" s="15">
+        <v>34060</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="E46">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F46" t="s">
         <v>103</v>
       </c>
       <c r="G46">
-        <f>E46*10</f>
-        <v>0.5</v>
+        <f>E46*2</f>
+        <v>0.04</v>
       </c>
       <c r="H46" t="s">
         <v>103</v>
       </c>
       <c r="I46" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="J46" t="s">
+        <v>104</v>
       </c>
       <c r="K46" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s">
-        <v>159</v>
+        <v>165</v>
+      </c>
+      <c r="M46" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="B47" s="15">
+        <v>34335</v>
+      </c>
+      <c r="C47" s="15">
+        <v>43344</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="E47">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F47" t="s">
         <v>103</v>
       </c>
       <c r="G47">
-        <f>E47*10</f>
-        <v>0.6</v>
+        <f>E47*2</f>
+        <v>0.1</v>
       </c>
       <c r="H47" t="s">
         <v>103</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
+        <v>102</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="K47" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s">
-        <v>159</v>
+        <v>165</v>
+      </c>
+      <c r="M47" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="17">
-        <v>35796</v>
-      </c>
-      <c r="C48" s="17">
-        <v>42004</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" t="s">
-        <v>145</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>142</v>
+      </c>
+      <c r="E48">
+        <v>0.01</v>
+      </c>
+      <c r="F48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48">
+        <f>E48*10</f>
+        <v>0.1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48" t="s">
+        <v>134</v>
+      </c>
+      <c r="K48" t="s">
+        <v>136</v>
+      </c>
+      <c r="L48" t="s">
+        <v>159</v>
+      </c>
+      <c r="M48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="16">
       <c r="A49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="17">
-        <v>35796</v>
-      </c>
-      <c r="C49" s="17">
-        <v>42004</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" t="s">
-        <v>145</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="E49">
+        <v>0.3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49">
+        <f>E49</f>
+        <v>0.3</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K49" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3907,28 +3871,56 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>150</v>
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>0.5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51">
+        <f>E51*0.001*2</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51" t="s">
+        <v>128</v>
+      </c>
+      <c r="K51" t="s">
+        <v>130</v>
+      </c>
+      <c r="L51" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B52" s="15">
+        <v>29587</v>
+      </c>
+      <c r="C52" s="15">
+        <v>29983</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>1.4</v>
+        <v>1E-3</v>
       </c>
       <c r="F52" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="G52">
-        <f>2*E52*40.078/2*0.001</f>
-        <v>5.6109200000000005E-2</v>
+        <f>E52*2</f>
+        <v>2E-3</v>
       </c>
       <c r="H52" t="s">
         <v>103</v>
@@ -3936,29 +3928,41 @@
       <c r="I52" t="s">
         <v>102</v>
       </c>
+      <c r="J52" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K52" t="s">
+        <v>130</v>
+      </c>
       <c r="L52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M52" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="B53" s="15">
+        <v>391982</v>
+      </c>
+      <c r="C53" s="15">
+        <v>31079</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>0.2</v>
+        <v>1E-3</v>
       </c>
       <c r="F53" t="s">
         <v>103</v>
       </c>
       <c r="G53">
-        <f>2*E53</f>
-        <v>0.4</v>
+        <f>E53*2</f>
+        <v>2E-3</v>
       </c>
       <c r="H53" t="s">
         <v>103</v>
@@ -3966,101 +3970,97 @@
       <c r="I53" t="s">
         <v>102</v>
       </c>
+      <c r="J53" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K53" t="s">
+        <v>130</v>
+      </c>
       <c r="L53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M53" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B54" s="15">
+        <v>31352</v>
+      </c>
+      <c r="C54" s="15">
+        <v>43344</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>0.22</v>
+        <v>1E-3</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="G54">
-        <f>2*E54*14*0.001</f>
-        <v>6.1600000000000005E-3</v>
+        <f>E54*2</f>
+        <v>2E-3</v>
       </c>
       <c r="H54" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="I54" t="s">
         <v>102</v>
       </c>
+      <c r="J54" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K54" t="s">
+        <v>130</v>
+      </c>
       <c r="L54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M54" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E55">
-        <v>0.32</v>
+        <v>2E-3</v>
       </c>
       <c r="F55" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="G55">
-        <f>2*E55*14*0.001</f>
-        <v>8.9600000000000009E-3</v>
+        <f>E55*10</f>
+        <v>0.02</v>
       </c>
       <c r="H55" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="I55" t="s">
-        <v>102</v>
+        <v>134</v>
+      </c>
+      <c r="K55" t="s">
+        <v>136</v>
       </c>
       <c r="L55" t="s">
-        <v>167</v>
-      </c>
-      <c r="M55" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56">
-        <v>3.12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>166</v>
-      </c>
-      <c r="G56">
-        <f>2*E56*32.065/2*0.001</f>
-        <v>0.1000428</v>
-      </c>
-      <c r="H56" t="s">
-        <v>137</v>
-      </c>
-      <c r="I56" t="s">
-        <v>102</v>
-      </c>
-      <c r="L56" t="s">
-        <v>167</v>
-      </c>
-      <c r="M56" t="s">
-        <v>168</v>
+        <v>17</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4079,9 +4079,9 @@
       <c r="A61" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M53">
-    <sortCondition ref="I2:I53"/>
-    <sortCondition ref="G2:G53"/>
+  <sortState ref="A2:M61">
+    <sortCondition ref="D2:D61"/>
+    <sortCondition ref="G2:G61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
